--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -1,47 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\KLTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\KLTN\github\BookStoreWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5761DF2-D502-4880-80D0-8F243F2681E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDEC275-8312-4E11-A1CE-0B2CE84B2CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin KLTN" sheetId="2" r:id="rId1"/>
     <sheet name="Các bảng chính" sheetId="1" r:id="rId2"/>
-    <sheet name="favorite" sheetId="23" r:id="rId3"/>
-    <sheet name="sameBook" sheetId="19" r:id="rId4"/>
-    <sheet name="sameCategory" sheetId="20" r:id="rId5"/>
-    <sheet name="sameAuthor" sheetId="21" r:id="rId6"/>
-    <sheet name="orders" sheetId="17" r:id="rId7"/>
-    <sheet name="orderDetails" sheetId="18" r:id="rId8"/>
-    <sheet name="offerDetail" sheetId="16" r:id="rId9"/>
-    <sheet name="offer" sheetId="15" r:id="rId10"/>
-    <sheet name="promotion" sheetId="13" r:id="rId11"/>
-    <sheet name="rating" sheetId="12" r:id="rId12"/>
-    <sheet name="comment" sheetId="11" r:id="rId13"/>
-    <sheet name="user" sheetId="9" r:id="rId14"/>
-    <sheet name="role" sheetId="10" r:id="rId15"/>
-    <sheet name="customer" sheetId="8" r:id="rId16"/>
-    <sheet name="employee" sheetId="7" r:id="rId17"/>
-    <sheet name="nxb" sheetId="6" r:id="rId18"/>
-    <sheet name="book" sheetId="3" r:id="rId19"/>
-    <sheet name="author" sheetId="5" r:id="rId20"/>
-    <sheet name="seri" sheetId="22" r:id="rId21"/>
-    <sheet name="category" sheetId="4" r:id="rId22"/>
+    <sheet name="seriBook" sheetId="24" r:id="rId3"/>
+    <sheet name="favorite" sheetId="23" r:id="rId4"/>
+    <sheet name="sameBook" sheetId="19" r:id="rId5"/>
+    <sheet name="sameCategory" sheetId="20" r:id="rId6"/>
+    <sheet name="sameAuthor" sheetId="21" r:id="rId7"/>
+    <sheet name="orders" sheetId="17" r:id="rId8"/>
+    <sheet name="orderDetails" sheetId="18" r:id="rId9"/>
+    <sheet name="offerDetail" sheetId="16" r:id="rId10"/>
+    <sheet name="offer" sheetId="15" r:id="rId11"/>
+    <sheet name="promotion" sheetId="13" r:id="rId12"/>
+    <sheet name="rating" sheetId="12" r:id="rId13"/>
+    <sheet name="comment" sheetId="11" r:id="rId14"/>
+    <sheet name="user" sheetId="9" r:id="rId15"/>
+    <sheet name="role" sheetId="10" r:id="rId16"/>
+    <sheet name="customer" sheetId="8" r:id="rId17"/>
+    <sheet name="employee" sheetId="7" r:id="rId18"/>
+    <sheet name="nxb" sheetId="6" r:id="rId19"/>
+    <sheet name="book" sheetId="3" r:id="rId20"/>
+    <sheet name="author" sheetId="5" r:id="rId21"/>
+    <sheet name="seri" sheetId="22" r:id="rId22"/>
+    <sheet name="category" sheetId="4" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="197">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -139,9 +140,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Thông tin của cửa hàng</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -181,9 +179,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Thông tin của người dùng</t>
-  </si>
-  <si>
     <t>employee</t>
   </si>
   <si>
@@ -205,9 +200,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Phân quyền và bảo mật</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -235,9 +227,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Tương tác người dùng với sản phẩm</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -263,9 +252,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Thanh toán</t>
   </si>
   <si>
     <t>Orders</t>
@@ -569,45 +555,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>nameNXB</t>
-  </si>
-  <si>
-    <t>detailNXB</t>
-  </si>
-  <si>
-    <t>imgNXB</t>
-  </si>
-  <si>
-    <t>nameAuthor</t>
-  </si>
-  <si>
-    <t>detailAuthor</t>
-  </si>
-  <si>
-    <t>imgAuthor</t>
-  </si>
-  <si>
-    <t>nameBook</t>
-  </si>
-  <si>
-    <t>publish</t>
-  </si>
-  <si>
-    <t>priceBook</t>
-  </si>
-  <si>
-    <t>detailBook</t>
-  </si>
-  <si>
-    <t>imgBook</t>
-  </si>
-  <si>
-    <t>idCategory</t>
-  </si>
-  <si>
-    <t>nameCategory</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -623,18 +570,6 @@
     <t>SeriID</t>
   </si>
   <si>
-    <t>seriID</t>
-  </si>
-  <si>
-    <t>seriName</t>
-  </si>
-  <si>
-    <t>seriDetail</t>
-  </si>
-  <si>
-    <t>seriImg</t>
-  </si>
-  <si>
     <t>Yêu thích</t>
   </si>
   <si>
@@ -648,18 +583,101 @@
   </si>
   <si>
     <t>userID</t>
+  </si>
+  <si>
+    <t>NameBook</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>DetailBook</t>
+  </si>
+  <si>
+    <t>ImgBook</t>
+  </si>
+  <si>
+    <t>seriBook</t>
+  </si>
+  <si>
+    <t>NameCategory</t>
+  </si>
+  <si>
+    <t>NameAuthor</t>
+  </si>
+  <si>
+    <t>DetailAuthor</t>
+  </si>
+  <si>
+    <t>ImgAuthor</t>
+  </si>
+  <si>
+    <t>NameNXB</t>
+  </si>
+  <si>
+    <t>DetailNXB</t>
+  </si>
+  <si>
+    <t>ImgNXB</t>
+  </si>
+  <si>
+    <t>Thông tin của cửa hàng (Store)</t>
+  </si>
+  <si>
+    <t>SeriName</t>
+  </si>
+  <si>
+    <t>SeriDetail</t>
+  </si>
+  <si>
+    <t>SeriImg</t>
+  </si>
+  <si>
+    <t>Thông tin của người dùng (profile)</t>
+  </si>
+  <si>
+    <t>Tương tác người dùng với sản phẩm(</t>
+  </si>
+  <si>
+    <t>Phân quyền và bảo mật(permission)</t>
+  </si>
+  <si>
+    <t>Thanh toán(payment)</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,7 +748,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,8 +833,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1042,22 +1066,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1071,69 +1106,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1142,58 +1176,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,6 +1258,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,33 +1317,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1575,14 +1619,14 @@
       <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="45" t="s">
@@ -1591,12 +1635,12 @@
       <c r="C3" s="46">
         <v>16110069</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="45" t="s">
@@ -1605,14 +1649,14 @@
       <c r="C4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="45" t="s">
@@ -1621,183 +1665,183 @@
       <c r="C5" s="46">
         <v>16110249</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="47"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1823,6 +1867,232 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="13"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="J3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="97"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13"/>
+      <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="D2:F3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{E2581161-E1F7-4D4B-AFD2-338352F906C1}"/>
+    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{74617A4F-9C28-4945-B422-E27815599C1C}"/>
+    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{3531D624-AED0-4DDC-B03F-166165B187AA}"/>
+    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{ADED9B95-1165-4245-9E88-34A83A429A20}"/>
+    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{BE8FB251-A02F-4571-BA8C-2B3354D7485E}"/>
+    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{03C28276-0A74-4D07-8086-873386169360}"/>
+    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{4333F076-1FFE-43A5-B51D-22CD79693068}"/>
+    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{E2EF6FC8-93A6-401F-A607-15100AAB1A43}"/>
+    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{0F70E11F-710A-4A9D-8DC6-B4188FB5D6DE}"/>
+    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{C454A1FB-A2DA-4C7F-A1A7-29802E8A7FE5}"/>
+    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{96F5BD68-F3DB-4448-9561-5D93F8FCF47A}"/>
+    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{C425030D-DC06-4480-B6CC-36AF9E34FDFF}"/>
+    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{7780C09C-F471-4CAC-AA22-0B9E5E4F0929}"/>
+    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{8F2CFABC-BACA-4330-8159-674138746E6A}"/>
+    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{84724B2F-EEF7-4BA6-9C74-D9CE60E8B31C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:J21"/>
   <sheetViews>
@@ -1840,100 +2110,100 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1941,12 +2211,12 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1954,30 +2224,30 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2011,12 +2281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2031,130 +2301,130 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2162,12 +2432,12 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2175,30 +2445,30 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2232,12 +2502,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2249,101 +2519,101 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>149</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="83"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2351,12 +2621,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2364,30 +2634,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2422,12 +2692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2441,115 +2711,115 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="84"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="85"/>
+        <v>41</v>
+      </c>
+      <c r="D7" s="100"/>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="86"/>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="101"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
-      <c r="D9" s="87"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2557,12 +2827,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2570,30 +2840,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
@@ -2648,101 +2918,101 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2750,12 +3020,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2763,30 +3033,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
@@ -2838,89 +3108,89 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2928,12 +3198,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2941,30 +3211,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:N21"/>
   <sheetViews>
@@ -3017,135 +3287,135 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+        <v>154</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3153,12 +3423,12 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3166,30 +3436,30 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3224,12 +3494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3243,142 +3513,142 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+        <v>154</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3386,12 +3656,12 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3399,30 +3669,30 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3457,12 +3727,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3475,103 +3745,103 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3579,12 +3849,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3592,30 +3862,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3649,12 +3919,674 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="17"/>
+    <col min="3" max="3" width="23.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="44" style="17" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="18"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="20"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="109"/>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="28">
+        <v>3</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="28">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="49">
+        <v>5</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="28">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21"/>
+      <c r="B15" s="28">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21"/>
+      <c r="B17" s="28">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21"/>
+      <c r="B18" s="28">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="21"/>
+      <c r="B20" s="28">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21"/>
+      <c r="B21" s="28">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21"/>
+      <c r="B22" s="49">
+        <v>13</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21"/>
+      <c r="B23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21"/>
+      <c r="B24" s="28">
+        <v>14</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21"/>
+      <c r="B25" s="66">
+        <v>15</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="21"/>
+      <c r="B27" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="36">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="21"/>
+      <c r="B29" s="36">
+        <v>17</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="21"/>
+      <c r="B30" s="36">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="72"/>
+      <c r="F30" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="21"/>
+      <c r="B31" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="40">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21"/>
+      <c r="B33" s="40">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="40">
+        <v>21</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="21"/>
+      <c r="B35" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="21"/>
+      <c r="B36" s="41">
+        <v>22</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="21"/>
+      <c r="B37" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="D44" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="E2:F4"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:E30"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A37" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
+      <formula1>"check, …."</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C8" location="book!A1" display="book" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C9" location="category!A1" display="category" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C10" location="author!A1" display="author" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C11" location="nxb!A1" display="nxb" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C14" location="employee!A1" display="employee" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C15" location="customer!A1" display="customer" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C17" location="user!A1" display="user" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C18" location="role!A1" display="role" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C20" location="comment!A1" display="comment" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C21" location="rating!A1" display="rating" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C28" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C29" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C30" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C32" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C33" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C34" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C24" location="orders!A1" display="Orders" xr:uid="{57908120-32E3-4104-969E-934A0BE1FE60}"/>
+    <hyperlink ref="C25:C26" location="orderDetails!A1" display="OrderDetails" xr:uid="{D080490D-D6DD-4998-8DA2-B9FA729C221F}"/>
+    <hyperlink ref="C12" location="seri!A1" display="seri" xr:uid="{258491A5-FD7B-4FD5-BD6F-6F54D8C93A6C}"/>
+    <hyperlink ref="C22" location="favorite!A1" display="favorite" xr:uid="{5C560FFA-4E32-4E93-93C1-1F1BE481552B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3669,135 +4601,143 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="88"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="103"/>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="89"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="104"/>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="89"/>
+        <v>41</v>
+      </c>
+      <c r="D7" s="104"/>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="89"/>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="104"/>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
-      <c r="D9" s="89"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="89"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="104"/>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="D11" s="104"/>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3805,30 +4745,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3863,656 +4803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="23.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="44" style="17" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="18"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="28">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="28">
-        <v>3</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="28">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="97">
-        <v>5</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="28">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="28">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="28">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="28">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="28">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="28">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="97">
-        <v>12</v>
-      </c>
-      <c r="C22" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="28">
-        <v>13</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="91">
-        <v>14</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="36">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="36">
-        <v>16</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="36">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
-      <c r="B32" s="40">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="40">
-        <v>19</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="40">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="41">
-        <v>21</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="D44" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="E2:F4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C8" location="book!A1" display="book" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C9" location="category!A1" display="category" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C10" location="author!A1" display="author" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C11" location="nxb!A1" display="nxb" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C14" location="employee!A1" display="employee" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C15" location="customer!A1" display="customer" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C17" location="user!A1" display="user" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C18" location="role!A1" display="role" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C20" location="comment!A1" display="comment" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C21" location="rating!A1" display="rating" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C28" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C29" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C30" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C32" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="C33" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C34" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="C24" location="orders!A1" display="Orders" xr:uid="{57908120-32E3-4104-969E-934A0BE1FE60}"/>
-    <hyperlink ref="C25:C26" location="orderDetails!A1" display="OrderDetails" xr:uid="{D080490D-D6DD-4998-8DA2-B9FA729C221F}"/>
-    <hyperlink ref="C12" location="seri!A1" display="seri" xr:uid="{258491A5-FD7B-4FD5-BD6F-6F54D8C93A6C}"/>
-    <hyperlink ref="C22" location="favorite!A1" display="favorite" xr:uid="{5C560FFA-4E32-4E93-93C1-1F1BE481552B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4525,103 +4821,103 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4629,12 +4925,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4642,30 +4938,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4699,12 +4995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73AB4-EC41-4C85-B047-178D9BE6708E}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4717,103 +5013,103 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="101" t="s">
-        <v>187</v>
+      <c r="E4" s="107" t="s">
+        <v>168</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="107" t="s">
         <v>188</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="107" t="s">
         <v>189</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="107" t="s">
         <v>190</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4821,12 +5117,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4834,30 +5130,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4891,12 +5187,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4909,89 +5205,89 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>180</v>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4999,12 +5295,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5012,30 +5308,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5070,11 +5366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB1E8-F571-4E88-B07D-6DCC5A60D412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726D8100-E7BF-4E89-99BF-A6394E5ED028}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5087,90 +5383,88 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="101" t="s">
-        <v>193</v>
-      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="13"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="101" t="s">
-        <v>194</v>
+      <c r="E5" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="13"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="101" t="s">
-        <v>195</v>
+      <c r="E6" s="54" t="s">
+        <v>168</v>
       </c>
       <c r="F6" s="13"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5178,12 +5472,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5191,30 +5485,207 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{8F826897-0291-4867-9FFB-A5F4F4251C73}"/>
+    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{40DE741D-65D7-46F6-9755-F035FEE0DADD}"/>
+    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{4F2E6EC6-3743-492C-9882-ED29B69B41D3}"/>
+    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{E638F87F-C671-47B6-ADBE-1FA20B57F764}"/>
+    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{B5CFDD0B-8206-49CE-A865-EE0A60369B53}"/>
+    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{39A26B7B-205D-44FC-8B67-4655AE9C0498}"/>
+    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{0198F54D-6DEB-4722-B498-0A517D292A68}"/>
+    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{194757BE-F375-43E2-8692-86EF21C447B1}"/>
+    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{DF083A5A-3B2D-478E-9453-D7E2EA4B9B4A}"/>
+    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{39BC7AC4-BA15-48F2-920D-F3E02DAAD847}"/>
+    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{5DD845B7-CDB1-4028-8055-B1EABE5C3D56}"/>
+    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{63072087-68C8-4A4A-8F6B-BA9202F11357}"/>
+    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{02EE69FA-51B7-4F77-B178-AF0B251646E0}"/>
+    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{111E592E-4842-48A0-A370-1A56B5B27423}"/>
+    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{7A60670E-86B0-4EE8-8092-79699F5F4902}"/>
+    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{EF97E168-0F59-432E-A496-A97DA60C54F2}"/>
+    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{1645EF66-400B-4132-8D17-69F2135863A0}"/>
+    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{7D2C690B-C895-4C42-86A3-9B9CA95DD3E4}"/>
+    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{64CD0933-9AB7-433D-B0AD-76050FCFF22D}"/>
+    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{C365B625-C531-42ED-A0B3-27EE7566F24B}"/>
+    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{FAAE8384-90ED-412B-9F22-690BA82C7273}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB1E8-F571-4E88-B07D-6DCC5A60D412}">
+  <dimension ref="A2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="H4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="H5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="H6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5248,12 +5719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5268,324 +5739,324 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="J3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
+        <v>107</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+        <v>79</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+        <v>83</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
+        <v>87</v>
+      </c>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+        <v>92</v>
+      </c>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+        <v>95</v>
+      </c>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+        <v>97</v>
+      </c>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
+        <v>48</v>
+      </c>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
       <c r="J12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
+        <v>111</v>
+      </c>
+      <c r="K12" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
+        <v>52</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
+        <v>56</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="13"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+        <v>61</v>
+      </c>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+        <v>65</v>
+      </c>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5623,7 +6094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
@@ -5641,85 +6112,85 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5727,12 +6198,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5740,30 +6211,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5797,11 +6268,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5814,85 +6285,85 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5900,12 +6371,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5913,30 +6384,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
@@ -5988,106 +6459,106 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6095,12 +6566,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6108,30 +6579,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6165,13 +6636,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -6183,101 +6652,101 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="94"/>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
+      <c r="A8" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6285,12 +6754,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6298,30 +6767,30 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
+      <c r="A18" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
+      <c r="A21" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6354,230 +6823,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:O21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="13"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="J3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="D2:F3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{E2581161-E1F7-4D4B-AFD2-338352F906C1}"/>
-    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{74617A4F-9C28-4945-B422-E27815599C1C}"/>
-    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{3531D624-AED0-4DDC-B03F-166165B187AA}"/>
-    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{ADED9B95-1165-4245-9E88-34A83A429A20}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{BE8FB251-A02F-4571-BA8C-2B3354D7485E}"/>
-    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{03C28276-0A74-4D07-8086-873386169360}"/>
-    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{4333F076-1FFE-43A5-B51D-22CD79693068}"/>
-    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{E2EF6FC8-93A6-401F-A607-15100AAB1A43}"/>
-    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{0F70E11F-710A-4A9D-8DC6-B4188FB5D6DE}"/>
-    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{C454A1FB-A2DA-4C7F-A1A7-29802E8A7FE5}"/>
-    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{96F5BD68-F3DB-4448-9561-5D93F8FCF47A}"/>
-    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{C425030D-DC06-4480-B6CC-36AF9E34FDFF}"/>
-    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{7780C09C-F471-4CAC-AA22-0B9E5E4F0929}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{8F2CFABC-BACA-4330-8159-674138746E6A}"/>
-    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{84724B2F-EEF7-4BA6-9C74-D9CE60E8B31C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\KLTN\github\BookStoreWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDEC275-8312-4E11-A1CE-0B2CE84B2CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFA2D9-F6A6-445B-ACCE-E2B78B7E7E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,27 +22,26 @@
     <sheet name="sameAuthor" sheetId="21" r:id="rId7"/>
     <sheet name="orders" sheetId="17" r:id="rId8"/>
     <sheet name="orderDetails" sheetId="18" r:id="rId9"/>
-    <sheet name="offerDetail" sheetId="16" r:id="rId10"/>
-    <sheet name="offer" sheetId="15" r:id="rId11"/>
-    <sheet name="promotion" sheetId="13" r:id="rId12"/>
-    <sheet name="rating" sheetId="12" r:id="rId13"/>
-    <sheet name="comment" sheetId="11" r:id="rId14"/>
-    <sheet name="user" sheetId="9" r:id="rId15"/>
-    <sheet name="role" sheetId="10" r:id="rId16"/>
-    <sheet name="customer" sheetId="8" r:id="rId17"/>
-    <sheet name="employee" sheetId="7" r:id="rId18"/>
-    <sheet name="nxb" sheetId="6" r:id="rId19"/>
-    <sheet name="book" sheetId="3" r:id="rId20"/>
-    <sheet name="author" sheetId="5" r:id="rId21"/>
-    <sheet name="seri" sheetId="22" r:id="rId22"/>
-    <sheet name="category" sheetId="4" r:id="rId23"/>
+    <sheet name="offer" sheetId="15" r:id="rId10"/>
+    <sheet name="promotion" sheetId="13" r:id="rId11"/>
+    <sheet name="rating" sheetId="12" r:id="rId12"/>
+    <sheet name="comment" sheetId="11" r:id="rId13"/>
+    <sheet name="user" sheetId="9" r:id="rId14"/>
+    <sheet name="role" sheetId="10" r:id="rId15"/>
+    <sheet name="customer" sheetId="8" r:id="rId16"/>
+    <sheet name="employee" sheetId="7" r:id="rId17"/>
+    <sheet name="nxb" sheetId="6" r:id="rId18"/>
+    <sheet name="book" sheetId="3" r:id="rId19"/>
+    <sheet name="author" sheetId="5" r:id="rId20"/>
+    <sheet name="seri" sheetId="22" r:id="rId21"/>
+    <sheet name="category" sheetId="4" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="256">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -254,9 +253,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Orders</t>
-  </si>
-  <si>
     <t>Danh sách hóa đơn thanh toán</t>
   </si>
   <si>
@@ -266,19 +262,10 @@
     <t>OrderID</t>
   </si>
   <si>
-    <t>OrderDetails</t>
-  </si>
-  <si>
     <t>Thông tin hóa đơn thanh toán</t>
   </si>
   <si>
-    <t>Thông tin chi tiết hóa đơn</t>
-  </si>
-  <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Các chương trình ưu đãi</t>
   </si>
   <si>
     <t>promotion</t>
@@ -300,37 +287,21 @@
     <t>Danh sách phiếu mua hàng</t>
   </si>
   <si>
-    <t>Khách sau mỗi lần mua hàng sẽ được tặng một
- phiếu mua hàng trị giá xxx</t>
-  </si>
-  <si>
     <t>OfferID</t>
   </si>
   <si>
     <t>offerDetail</t>
   </si>
   <si>
-    <t>Chi tiết phiếu mua hàng</t>
-  </si>
-  <si>
-    <t>OfferDetailID</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Recomment System</t>
-  </si>
-  <si>
     <t>sameBook</t>
   </si>
   <si>
     <t>Recomment System theo sách</t>
   </si>
   <si>
-    <t>none id</t>
-  </si>
-  <si>
     <t>sameCategory</t>
   </si>
   <si>
@@ -346,16 +317,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>Tracking</t>
-  </si>
-  <si>
     <t>trackUser</t>
   </si>
   <si>
     <t>Tracking hoạt động khách hàng</t>
-  </si>
-  <si>
-    <t>chưa biết</t>
   </si>
   <si>
     <t>I</t>
@@ -405,30 +370,15 @@
 </t>
   </si>
   <si>
-    <t>orders</t>
-  </si>
-  <si>
     <t>Khóa ngoại</t>
   </si>
   <si>
-    <t>totalPrice</t>
-  </si>
-  <si>
     <t>Double</t>
   </si>
   <si>
-    <t>orderDate</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>orderDetails</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -459,15 +409,6 @@
     <t>discount</t>
   </si>
   <si>
-    <t>detailOffer</t>
-  </si>
-  <si>
-    <t>dateStart</t>
-  </si>
-  <si>
-    <t>dateEnd</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -480,9 +421,6 @@
     <t>Điêu kiện để có mức giảm giá</t>
   </si>
   <si>
-    <t>detailPromotion</t>
-  </si>
-  <si>
     <t>Ví dụ</t>
   </si>
   <si>
@@ -498,63 +436,15 @@
     <t>Khóa Ngoại</t>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>commentDate</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
-    <t>nameRole</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Tên của khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nickName </t>
-  </si>
-  <si>
-    <t>Tên sẽ hiển thị khi đăng nhập</t>
-  </si>
-  <si>
-    <t>nickName</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Tên của nhân viên</t>
-  </si>
-  <si>
-    <t>nameEmp</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -576,15 +466,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>favoriteID</t>
-  </si>
-  <si>
-    <t>bookID</t>
-  </si>
-  <si>
-    <t>userID</t>
-  </si>
-  <si>
     <t>NameBook</t>
   </si>
   <si>
@@ -639,9 +520,6 @@
     <t>Thông tin của người dùng (profile)</t>
   </si>
   <si>
-    <t>Tương tác người dùng với sản phẩm(</t>
-  </si>
-  <si>
     <t>Phân quyền và bảo mật(permission)</t>
   </si>
   <si>
@@ -652,6 +530,472 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>Tương tác người dùng với sản phẩm(action)</t>
+  </si>
+  <si>
+    <t>NameEmp</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>NameRole</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>OrderDetail</t>
+  </si>
+  <si>
+    <t>Các chương trình ưu (event)</t>
+  </si>
+  <si>
+    <t>Recomment System(recommentSys)</t>
+  </si>
+  <si>
+    <t>Tracking(Tracking)</t>
+  </si>
+  <si>
+    <t>FavoriteID</t>
+  </si>
+  <si>
+    <t>CommentDate</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>DateStart</t>
+  </si>
+  <si>
+    <t>DateEnd</t>
+  </si>
+  <si>
+    <t>DetailPromotion</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>IfDiscount</t>
+  </si>
+  <si>
+    <t>DiscountCode</t>
+  </si>
+  <si>
+    <t>discountCode</t>
+  </si>
+  <si>
+    <t>DiscountDetail</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin sách</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin thể loại</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin tác giả</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin seri (ví dụ với một bộ truyện doraemon có nhiều tập , thì sẽ có chung seri là doraemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu trữ thông tin nhân viên </t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>user có thể đánh dấu quốn sách , với hàm ý là chú ý đến quốn sách , mỗi khi có đợt giảm giá hoặc tập truyện mới ra của cùng seri được phát hành thì khi đó sẽ thông báo cho người dùng biết hoặc ưu tiên xuất hiện lên trang đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông tin chi tiết hóa đơn </t>
+  </si>
+  <si>
+    <t>Khách sau mỗi lần mua hàng sẽ được tặng một
+ phiếu mua hàng trị giá xxx với mã code là yyy</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Năm xuất bản</t>
+  </si>
+  <si>
+    <t>Mã thể loại</t>
+  </si>
+  <si>
+    <t>Mã tác giả</t>
+  </si>
+  <si>
+    <t>Mã nxb</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Hình</t>
+  </si>
+  <si>
+    <t>Mã seri</t>
+  </si>
+  <si>
+    <t>Tỉ lệ giảm giá</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đối với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Sale" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">thì sẽ thay đổi dựa theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Publish" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ví dụ :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publish mặc định =1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+với sách cũ đã xuất bản được trên 5 năm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"2020-publish&gt;=5" thì Sale = 0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+với sách cũ đã xuất bản được trên 10 năm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"2020-publish&gt;=10" thì Sale = 0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+và khi đó giá của sách sẽ được tính bằng công thức
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"PriceBook*(1-publish)"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên thể loại </t>
+  </si>
+  <si>
+    <t>Tên tác giả</t>
+  </si>
+  <si>
+    <t>Tên seri</t>
+  </si>
+  <si>
+    <t>Thông tin seri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hình </t>
+  </si>
+  <si>
+    <t>id tài khoản</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Sđt</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Nick name</t>
+  </si>
+  <si>
+    <t>Email email</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>ngày sinh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">là tên thật của nhân viên
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NickName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là tên sẽ hiển thị sau khi đăng nhập</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Tên NXB</t>
+  </si>
+  <si>
+    <t>Thông tin NXB</t>
+  </si>
+  <si>
+    <t>tài khoản đăng nhập</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>quyền truy cập</t>
+  </si>
+  <si>
+    <t>id sách</t>
+  </si>
+  <si>
+    <t>id khách</t>
+  </si>
+  <si>
+    <t>ngày comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thời gian </t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>số sao</t>
+  </si>
+  <si>
+    <t>OrderDetailID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng hóa đơn </t>
+  </si>
+  <si>
+    <t>ngày thanh toán</t>
+  </si>
+  <si>
+    <t>tổng giá</t>
+  </si>
+  <si>
+    <t>số lượng</t>
+  </si>
+  <si>
+    <t>id hóa đơn</t>
+  </si>
+  <si>
+    <t>ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>ngày kết thúc</t>
+  </si>
+  <si>
+    <t>điều kiện thỏa</t>
+  </si>
+  <si>
+    <t>mệnh giá</t>
+  </si>
+  <si>
+    <t>thông tin event</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Thông tin mã khuyến mãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngày bắt đầu </t>
+  </si>
+  <si>
+    <t>thời hạn</t>
+  </si>
+  <si>
+    <t>boolen</t>
+  </si>
+  <si>
+    <t>Check mã đã dùng chưa</t>
+  </si>
+  <si>
+    <t>mệnh giá giảm</t>
   </si>
 </sst>
 </file>
@@ -664,6 +1008,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,13 +1067,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -735,17 +1079,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -805,12 +1150,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,13 +1168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,19 +1425,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1106,224 +1451,289 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1613,235 +2023,235 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="39">
         <v>16110069</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="39">
         <v>16110249</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="47"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1867,237 +2277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="J3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="97"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="D2:F3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{E2581161-E1F7-4D4B-AFD2-338352F906C1}"/>
-    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{74617A4F-9C28-4945-B422-E27815599C1C}"/>
-    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{3531D624-AED0-4DDC-B03F-166165B187AA}"/>
-    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{ADED9B95-1165-4245-9E88-34A83A429A20}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{BE8FB251-A02F-4571-BA8C-2B3354D7485E}"/>
-    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{03C28276-0A74-4D07-8086-873386169360}"/>
-    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{4333F076-1FFE-43A5-B51D-22CD79693068}"/>
-    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{E2EF6FC8-93A6-401F-A607-15100AAB1A43}"/>
-    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{0F70E11F-710A-4A9D-8DC6-B4188FB5D6DE}"/>
-    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{C454A1FB-A2DA-4C7F-A1A7-29802E8A7FE5}"/>
-    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{96F5BD68-F3DB-4448-9561-5D93F8FCF47A}"/>
-    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{C425030D-DC06-4480-B6CC-36AF9E34FDFF}"/>
-    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{7780C09C-F471-4CAC-AA22-0B9E5E4F0929}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{8F2CFABC-BACA-4330-8159-674138746E6A}"/>
-    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{84724B2F-EEF7-4BA6-9C74-D9CE60E8B31C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2105,124 +2289,203 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="J3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="129"/>
+      <c r="J3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="E4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="130" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="131"/>
+      <c r="I5" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="122"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:15">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:15">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2233,34 +2496,35 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+  <mergeCells count="8">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{AB151D43-8F50-4F00-B871-59E714EA7C6E}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{C7D4CD79-CA9C-4508-9B66-77B132F3D7AE}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{5988E9F6-3F48-407D-BABE-B9A605C922C4}"/>
@@ -2276,17 +2540,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{92A6CDD1-C84E-4D08-A177-DE7397915A13}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{1DA21B28-1842-4D70-8788-7449136BACF7}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{C5BA48B5-A634-4C2F-AE91-6E1B2B783B8E}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{D32B1F65-050F-4F62-A258-6C28D964F630}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{D8C86735-5325-4F25-8B95-4EBE952335E3}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{1CF046F1-3D8E-432D-81AA-D238FDF96A31}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{781B782C-5007-4289-8891-441B9AD994F2}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{318B0511-4FE4-4FBE-A761-E480134F7CD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2294,156 +2563,185 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="J3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="8" t="s">
-        <v>137</v>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="119" t="s">
+        <v>116</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="K6" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>122</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="13"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>123</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2454,34 +2752,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{932E76DF-B024-4ABC-AB64-AC038BEC3FE6}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{A53B38C4-868D-45C8-B0AA-FD9E56CA26F1}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{FDC3993D-3371-460E-A376-619F522F49A5}"/>
@@ -2497,17 +2789,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{026D884D-AA00-44D1-8F9C-C905DB955B51}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{417CA498-FBB1-448B-82C5-71C12BD0D04D}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{D5EA5E28-5757-42D4-ABC9-9B0C6AFBD25B}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{AA4C8E0D-8C2F-4470-983C-02C082728690}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{59A8318F-6D72-483B-B590-1A6734E75544}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{52C8D2C3-B70C-45BF-A4FE-4D18F317F28D}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{F6344220-BAC2-433E-935E-88A6D0DAEA46}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{29A8BE06-7436-440E-8B7A-F117581B2698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2515,124 +2812,138 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2643,35 +2954,29 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{7D165A8C-6D0C-4184-8D54-F17AF1F4D6F0}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{29C7B46E-6A59-44B9-8F0B-2619144CEE6E}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{BEE8BE34-8142-46AD-AB9D-B64E49F30E2F}"/>
@@ -2687,17 +2992,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{808CB000-6293-4752-BDC3-8EA273B8E688}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{74DB042D-E200-4363-BBA9-0C37AB6F6200}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{90D41191-EDA8-4AE9-AD3A-B44EFB74EECC}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{CE6FA1D1-ED61-4FEB-8660-A0600FB1BF37}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{8E629B90-9D9A-46E9-A64F-2B895B1C844F}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{B8FC087B-A2AC-4494-8181-813E636ED3A6}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{287CFB83-5C45-4EFA-BF31-A82C16708782}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{E67BC503-C201-438E-B211-54AF7098AC08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2705,140 +3015,161 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D7" s="68"/>
+      <c r="E7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="68"/>
+      <c r="E9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2849,36 +3180,30 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{2DCECDFA-B1C2-4D21-B9B4-70861A66CBB9}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{F8F01B97-6813-41C9-88F8-4E05CFF70377}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{7F2AA7D7-E6D3-4994-953F-64A54AF6D06E}"/>
@@ -2894,17 +3219,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{B8BF53FF-934B-46A1-A82E-8733BF2C947F}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{E51A5AEC-CAA2-4638-9DDD-F04BDA25F156}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{B4CC0B91-34BE-4C39-9850-0CB0E87D4A79}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{CCE9FE14-2B27-441F-87DC-4BF9E95DF3AF}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{FF29A728-BFB6-4816-900A-6CC51A7F7EFE}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{4B63C649-6F77-468E-A03E-5BF77DEE27AE}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{2FB93BF3-0239-4530-AC2A-0B295030526D}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{E609C465-4BE3-419F-9C36-BFBF67146001}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2913,125 +3243,191 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="K3" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F7" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:15">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -3042,34 +3438,30 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0D00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0D00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{B0F78501-5566-4184-9FEE-56B88A3B9BE6}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{7EDDB62A-5BDE-4E5B-884B-B940FA066FA5}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{06F57309-0536-4223-B508-CD8DD4989E90}"/>
@@ -3085,17 +3477,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{4AA31790-A35B-42E2-ACA0-7CBBC200A0F2}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{86968F1E-BDB4-4E98-888A-DAD518D0615E}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{94D29DCE-D2CB-4E64-992D-1D7E44E335D3}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{B38BE6C7-8D73-493E-9BEE-7DEED6A04DF8}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{624F968E-19CC-41AE-A8CE-79AD7F757CC2}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{7B679341-44D9-4C38-8EFF-4F9CB5C6A832}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{0F277E97-2519-481F-A158-2D5D61A896F4}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{E2B812A1-F847-426F-81C1-08DC570954C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3103,113 +3500,118 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -3220,34 +3622,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0C00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0C00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{6D67BCD3-6900-4F2D-A9D2-88490236616F}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{7A949A29-397C-4A75-A587-C50D25AB7D4B}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{EFE514CB-7FB4-4E18-A280-47EC02274850}"/>
@@ -3263,17 +3659,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{A354F34E-B379-4C4F-B058-B656815CEA44}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{7279337A-DC08-422C-BC6E-3A54FACF2861}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{30CB077D-5BC7-47E9-940E-3AF1380A0D5B}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{D5D113F6-97F0-49B6-84B7-9A1553FEC348}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{BC8AD9E1-AEFF-4704-A797-DFB45B66643E}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{B53D2738-F93A-4402-9386-7B4C6C802B4A}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{8B537F19-BBBB-402B-ACA1-3C473B376EEF}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{45491E76-DFEC-4656-BF3E-378A452C9604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A2:N21"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3281,160 +3682,189 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="J3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="105"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="105"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="E6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
+      <c r="E7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="F8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="F9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="D10" s="13"/>
+      <c r="E10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="G11" s="102"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="G12" s="102"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -3445,35 +3875,34 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D2:F3"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{B5FB9541-4DDE-4554-8AD4-3A1938E3CB06}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{083BA2CE-29E6-4562-AB38-14BBF7ECF660}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{8A8E4896-4959-4B70-A255-3937B0161A95}"/>
@@ -3489,17 +3918,18 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{04EBD995-885B-46E2-B43C-28E1616C71CE}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{8A850FEB-7EE1-4A4C-9C63-D806E6301BDD}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{F3EC0205-08B7-4E60-BD20-5853759A7F5A}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{5EEBBF3B-CB16-4C9A-AB97-69AB11BC6DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A2:N21"/>
+  <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3507,167 +3937,206 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="J3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="F7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="F8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="D11" s="13"/>
+      <c r="E11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="D12" s="13"/>
+      <c r="E12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -3678,35 +4147,34 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D2:F3"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{1A487C3B-2073-4560-9509-9C4C53DD6E67}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{E60DAD1C-C3A7-42EE-A4BB-F86128C4DAED}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{5F08E26E-E8BB-43F1-814D-13258DC351D8}"/>
@@ -3722,17 +4190,18 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{567619BC-8416-4108-8A5B-3A54B417E0FF}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{5318C3A0-FA70-4478-AA97-9018A0F9FB74}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{38D1690E-50FB-489B-896F-D2596042BEBA}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{DCE9952B-0C62-4537-9EDC-6197F6919FD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3740,26 +4209,30 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3770,97 +4243,104 @@
         <v>43</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -3871,34 +4351,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1000-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1000-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{ED01F5FE-DA22-4B9A-B94D-9F988223BF84}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{9B06B574-75F4-4E41-B8CC-2A3AF10028DA}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{168A9894-7DA7-4743-9BD3-92CD840AE15C}"/>
@@ -3914,18 +4388,364 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{735114E2-CF25-479E-A4DC-5689A20EB45D}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{4FDF94BD-CCC0-4509-B189-AB844A370E64}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{40C4FC72-9BB6-4B8F-8CE5-2851FD2753FF}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{89666D1B-F74D-46C3-BC66-643E79DCEB87}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{81302915-776D-47CA-AB34-1058EC224BE0}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{5929C140-5C0C-4592-867D-8B236A8D984A}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{6F9F7CA3-7A7E-42CC-929C-027CF1BF7B94}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{2B05010A-26FF-4EC6-A985-AFF0BB76B0E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A2:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="13"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="K3" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="98"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="84"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="13"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="K4:O14"/>
+    <mergeCell ref="K3:O3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1200-000012000000}"/>
+    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{1437E8B6-98AC-470A-8F73-FDE2D1882DE4}"/>
+    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{9512F98B-1E02-4D8A-8CF6-52385D9DF073}"/>
+    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{AB58B097-BD4E-42ED-8469-6443D3F3D38A}"/>
+    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{29D0FFFB-C92E-4719-97A2-C529BD01BAEB}"/>
+    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{CF0FAA2A-8608-4BD2-904F-4E4F7A479506}"/>
+    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{406E0470-47AF-49D1-B7FF-FFAAB551C2B4}"/>
+    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{9DA4E5C1-1A96-48AC-AC7E-67AA073FCBD6}"/>
+    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{08E0BB1E-1512-4511-9114-E9C0CEBFE27E}"/>
+    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{C6DFC8FA-B53F-440C-A58E-F0EB0C0131A1}"/>
+    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{F870F775-414C-4116-8B59-A76B4AE6EA91}"/>
+    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{CC1FECBE-DCB4-46B1-94AF-3A1033921457}"/>
+    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{6DA690EE-9FB0-46DD-916A-A5C7C1DE7325}"/>
+    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{935A54DA-734F-43ED-9611-C2F395251F2D}"/>
+    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{6DF59F98-5B24-49D8-B858-EE514A34085F}"/>
+    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{75340EA8-6298-4891-B08F-7AE5C49F6E67}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{EAAE563B-6BE2-448F-8CCF-854D7237267A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
@@ -3933,62 +4753,56 @@
     <col min="3" max="3" width="23.140625" style="17" customWidth="1"/>
     <col min="4" max="4" width="44" style="17" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="18"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="61"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="20"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="61"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="109"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="44"/>
       <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
@@ -4001,29 +4815,25 @@
       <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="110" t="s">
-        <v>196</v>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="110" t="s">
-        <v>196</v>
+      <c r="C7" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="B8" s="28">
         <v>1</v>
@@ -4034,15 +4844,14 @@
       <c r="D8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="110" t="s">
-        <v>196</v>
+      <c r="E8" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="28">
         <v>2</v>
@@ -4053,34 +4862,32 @@
       <c r="D9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="110" t="s">
-        <v>196</v>
+      <c r="E9" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="B10" s="28">
         <v>3</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="110" t="s">
-        <v>196</v>
+      <c r="E10" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="B11" s="28">
         <v>4</v>
@@ -4091,46 +4898,47 @@
       <c r="D11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="110" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="49">
+      <c r="E11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.5">
+      <c r="A12" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="90">
         <v>5</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="32" t="s">
+      <c r="C12" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
+      <c r="C13" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="45" t="s">
+        <v>156</v>
+      </c>
       <c r="B14" s="28">
         <v>7</v>
       </c>
@@ -4140,14 +4948,15 @@
       <c r="D14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
+      <c r="E14" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="45" t="s">
+        <v>156</v>
+      </c>
       <c r="B15" s="28">
         <v>8</v>
       </c>
@@ -4157,26 +4966,24 @@
       <c r="D15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="21"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="21"/>
       <c r="B17" s="28">
         <v>9</v>
@@ -4190,12 +4997,9 @@
       <c r="E17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="21"/>
       <c r="B18" s="28">
         <v>10</v>
@@ -4209,25 +5013,21 @@
       <c r="E18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="21"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="21"/>
       <c r="B20" s="28">
         <v>11</v>
@@ -4241,12 +5041,9 @@
       <c r="E20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="21"/>
       <c r="B21" s="28">
         <v>12</v>
@@ -4260,297 +5057,244 @@
       <c r="E21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="63">
       <c r="A22" s="21"/>
-      <c r="B22" s="49">
+      <c r="B22" s="90">
         <v>13</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="21"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="21"/>
       <c r="B24" s="28">
         <v>14</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21"/>
+      <c r="B25" s="54">
+        <v>15</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="66">
-        <v>15</v>
-      </c>
-      <c r="C25" s="68" t="s">
+      <c r="E25" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="21"/>
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="C27" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="32">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="D28" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="32" t="s">
+      <c r="E28" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="36">
-        <v>16</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="36" t="s">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.5">
+      <c r="A29" s="21"/>
+      <c r="B29" s="32">
+        <v>17</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="36">
-        <v>17</v>
-      </c>
-      <c r="C29" s="39" t="s">
+      <c r="E29" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="21"/>
+      <c r="B30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="C30" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="21"/>
+      <c r="B31" s="33">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="D31" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21"/>
+      <c r="B32" s="33">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
-      <c r="B30" s="36">
-        <v>18</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D32" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="21"/>
+      <c r="B33" s="33">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="30" t="s">
+      <c r="D33" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="27" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="21"/>
+      <c r="B34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C34" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21"/>
+      <c r="B35" s="34">
+        <v>21</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="40">
-        <v>19</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="21"/>
+      <c r="B36" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40" t="s">
+      <c r="C36" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="40">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="40">
-        <v>21</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="41">
-        <v>22</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="D44" s="42"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="D43" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="E2:F4"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A37" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
       <formula1>"check, …."</formula1>
     </dataValidation>
   </dataValidations>
@@ -4567,10 +5311,9 @@
     <hyperlink ref="C21" location="rating!A1" display="rating" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="C28" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="C29" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C30" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C32" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="C33" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C34" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C31" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C32" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C33" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="C24" location="orders!A1" display="Orders" xr:uid="{57908120-32E3-4104-969E-934A0BE1FE60}"/>
     <hyperlink ref="C25:C26" location="orderDetails!A1" display="OrderDetails" xr:uid="{D080490D-D6DD-4998-8DA2-B9FA729C221F}"/>
     <hyperlink ref="C12" location="seri!A1" display="seri" xr:uid="{258491A5-FD7B-4FD5-BD6F-6F54D8C93A6C}"/>
@@ -4582,233 +5325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A2:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="104"/>
-      <c r="E6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D2:F3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-1200-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1200-000012000000}"/>
-    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{1437E8B6-98AC-470A-8F73-FDE2D1882DE4}"/>
-    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{9512F98B-1E02-4D8A-8CF6-52385D9DF073}"/>
-    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{AB58B097-BD4E-42ED-8469-6443D3F3D38A}"/>
-    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{29D0FFFB-C92E-4719-97A2-C529BD01BAEB}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{CF0FAA2A-8608-4BD2-904F-4E4F7A479506}"/>
-    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{406E0470-47AF-49D1-B7FF-FFAAB551C2B4}"/>
-    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{9DA4E5C1-1A96-48AC-AC7E-67AA073FCBD6}"/>
-    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{08E0BB1E-1512-4511-9114-E9C0CEBFE27E}"/>
-    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{C6DFC8FA-B53F-440C-A58E-F0EB0C0131A1}"/>
-    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{F870F775-414C-4116-8B59-A76B4AE6EA91}"/>
-    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{CC1FECBE-DCB4-46B1-94AF-3A1033921457}"/>
-    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{6DA690EE-9FB0-46DD-916A-A5C7C1DE7325}"/>
-    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{935A54DA-734F-43ED-9611-C2F395251F2D}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{6DF59F98-5B24-49D8-B858-EE514A34085F}"/>
-    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{75340EA8-6298-4891-B08F-7AE5C49F6E67}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A2:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4816,127 +5337,138 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -4947,34 +5479,32 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-1100-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-1100-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1100-000012000000}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1100-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{3B0CFDC1-B20A-467E-9ECF-13CCCDBCCCB1}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{31219FE2-31DB-4E0E-8432-14D86A63614A}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{28E92A3E-6862-4D93-98FF-CD093791756C}"/>
@@ -4990,17 +5520,18 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{3E8735B3-CAC7-40D0-9519-425A000F5DA7}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{552B122E-1FAA-4BC7-81AB-431DC6F2777B}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{32BC8FA1-0CCF-4D54-B252-368A0D2FC3AC}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{7293BFF3-5AFC-4D95-8239-C40E50B72CA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73AB4-EC41-4C85-B047-178D9BE6708E}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5008,127 +5539,138 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="107" t="s">
-        <v>168</v>
+      <c r="E4" s="43" t="s">
+        <v>132</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="107" t="s">
-        <v>188</v>
+      <c r="E5" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="107" t="s">
-        <v>189</v>
+      <c r="E6" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="107" t="s">
-        <v>190</v>
+      <c r="E7" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -5139,34 +5681,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{2B05010A-26FF-4EC6-A985-AFF0BB76B0E5}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{7A21CAFD-2B09-4FDA-BAA2-C8A13ACD34CA}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{2E544CBB-B3FC-4B89-9706-BD437C7CD2E6}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{6F9F7CA3-7A7E-42CC-929C-027CF1BF7B94}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{5929C140-5C0C-4592-867D-8B236A8D984A}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{81302915-776D-47CA-AB34-1058EC224BE0}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{2DFC419F-A317-41E0-925D-FC2D48C76CE6}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{DA0347D2-6C38-4280-98EB-917986B845EE}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{0568EAF5-85CD-47B0-AD4E-50DE0789C475}"/>
@@ -5182,17 +5718,22 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{E62D3CAE-2682-4FBB-ADF3-B5CA0364DD9A}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{E95C6DEC-91AE-458B-BA88-4FD18BF39193}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{B1B4847D-8091-46AC-99D9-9F00199BB61B}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{36DCC44C-9B1D-4E5E-B2C5-2867841FA170}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{5B304A87-7E5C-4CBC-AC62-EFD0A17A05DF}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{8A68CFDB-3448-46DD-92F3-E1CCFFB67EED}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{CE3A921A-161B-45C9-A244-563824964F3A}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{99727C35-FBED-468A-825E-15BDADC2E669}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5200,26 +5741,30 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5229,84 +5774,85 @@
       <c r="E4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -5317,34 +5863,32 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1300-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-1300-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-1300-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1300-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1300-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1300-000012000000}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1300-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1300-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1300-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1300-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{1E440042-2B43-4DF0-A54F-3EF7D6B77B56}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{654BCB3C-EF2D-4C20-9DCD-E9748EB1DED4}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{3C8F2582-F264-4C55-ADB8-8CF824C2C6B8}"/>
@@ -5360,6 +5904,7 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{1F0BF997-A235-4E7B-8531-C9760B9590E1}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{34271B0A-3704-4BCE-8A22-9E98C3C3CD0D}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{A0AA5A7E-C66E-43BF-AF3D-DA0C9F326FC3}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{5E886DB3-B7A6-4AAB-9589-8E200D58ADE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5383,29 +5928,29 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+        <v>95</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="54"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="13"/>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5413,12 +5958,12 @@
         <v>35</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="42" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="13"/>
       <c r="H5" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5426,12 +5971,12 @@
         <v>38</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="54" t="s">
-        <v>168</v>
+      <c r="E6" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="F6" s="13"/>
       <c r="H6" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5441,17 +5986,17 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
+      <c r="A8" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5459,7 +6004,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5494,21 +6039,21 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5544,123 +6089,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB1E8-F571-4E88-B07D-6DCC5A60D412}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="52" t="s">
-        <v>171</v>
+      <c r="D4" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>173</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="116"/>
+      <c r="E6" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -5671,34 +6225,29 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{E02DCE49-2186-4BE3-9096-E8D02326081C}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{9024CD1B-4B0C-4014-A7A2-FC91A9CBE731}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{8506FB52-E22F-473E-8B05-C3EBBD53E8B2}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{5081A2D8-2B2C-4992-AA81-0D10C7CB00DE}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{AF818DD9-009A-41CF-B543-9424FDBE4589}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{7FE086A8-EF20-4D94-B44D-FDEC2951DD93}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{94EB9E6C-6864-4EA3-8A01-13C63AA03357}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{6BEB85AB-0E6C-4852-A598-52BFA0FDC1BA}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{DA6228A4-1E8B-4E18-8F61-0B663403FB15}"/>
@@ -5714,6 +6263,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{E6092511-4DA7-4596-9EF4-AC0520C81CBD}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{BE44D818-6DA3-4DA8-83D4-025EECC764F1}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{B2EFDE97-939A-45D6-9570-ADEF4279E3D6}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{9742FB90-727B-4357-BA55-5C5BEED5BB50}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{9958F3F3-653D-43DB-9B96-A70883903A78}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{DB5AC4D9-B1B8-4B28-A06F-F7FBE5EC5551}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{86F8E9C9-06C0-48B8-A61C-B402F38080BE}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{BA2582CE-2A7C-4765-9D00-37A2F1C3C77C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5724,7 +6278,7 @@
   <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5735,34 +6289,35 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+        <v>95</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="J3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
+        <v>96</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -5773,18 +6328,18 @@
         <v>34</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -5795,268 +6350,265 @@
         <v>55</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
       <c r="J12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
+      <c r="K13" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="13"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6068,12 +6620,6 @@
     <mergeCell ref="J5:P11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{62A9C4E4-1FE8-4DCD-B621-F872148FD4A8}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{8C9422BF-9078-4D7A-AB05-734D60FF4623}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{4587CAE3-4164-4F9E-AAFC-7ED296A7F48B}"/>
@@ -6089,6 +6635,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{AD02D0D0-8BBE-4A5E-A135-989FC821CE89}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{5CC7D1B6-B80A-4275-A1B9-8653B0B89B05}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{A5BAE4E0-E1A8-447D-BE9D-DDF4967F3D63}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{A6C78D23-F64A-4B26-8A1E-806BED333E5A}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{9F945AFB-5EAE-4891-8BC8-418596FCE20D}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{6EEA1E42-D38D-488A-8F9C-F05B194E3F55}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{0D704AAA-F305-4E8D-8811-3D305357BC2C}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{F5C0093D-97D6-427E-B092-9DE75180AFF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6096,10 +6647,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6108,25 +6659,26 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6135,11 +6687,11 @@
         <v>37</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -6148,68 +6700,65 @@
         <v>55</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6220,21 +6769,21 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6242,12 +6791,6 @@
     <mergeCell ref="D2:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{7677A6DC-EE79-4279-B351-1495945A409A}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{5508059C-8F6D-4021-8C24-CA83D64FCDDA}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{434E39FF-16A4-4883-95FF-62A8EE035F38}"/>
@@ -6263,6 +6806,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{3A0229BC-2421-43C6-BBB6-F3754F285128}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{CBB371AC-749F-412A-92C4-D438542508B9}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{30ED7454-FFBB-48E9-B960-F40E33785F25}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{7F29DCC0-26C4-4754-B70C-F2DA8C02262B}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{F53B0225-5F62-4BF3-AFE0-3CB0679DD220}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{8CC05636-8A51-4CAD-971E-C25A8A91BEEB}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{A44C4069-3B89-4B27-856F-E941F71A834D}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{6C7B9C18-6F5F-4146-87CA-09B3C970B849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6270,10 +6818,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6281,25 +6829,26 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6308,11 +6857,11 @@
         <v>40</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -6321,68 +6870,65 @@
         <v>55</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6393,21 +6939,21 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6415,12 +6961,6 @@
     <mergeCell ref="D2:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{B0ECCB7B-80E1-4406-BCC0-F721EF1F3484}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{E61AA14C-0F11-4A24-8299-1CD13306EF81}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{BF394B6F-D0AA-4C3F-87D2-CED1B96595F6}"/>
@@ -6436,6 +6976,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{EA1FE4E5-E524-4DB2-8719-A95B00C0B26F}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{1B0BC191-0973-4C9B-A710-6816323C7D8F}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{9C93AC15-1F6F-4C3F-A0D0-B4DF9F3DD9C8}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{70A7F8B0-5D4A-48C0-A672-EDF92B73A79B}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{F65BCACE-D1AE-4945-A80A-18D72E2902C9}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{03F22236-4D16-4A82-910C-2D7A7EDAAD68}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{A9BD0CC9-0098-4DC9-A85B-01767DB7D29F}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{827C9AC1-A4FC-4F82-AE37-ECEC825F5384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6443,7 +6988,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -6454,130 +6999,143 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6588,34 +7146,28 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{F696BEFE-900B-4D17-A7B5-10A50A9E1B7D}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{B723BB69-43CD-43C2-B26B-C71BBB9D49E3}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{9CF21268-8324-4F03-9226-250CAFE7B77E}"/>
@@ -6631,6 +7183,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{2BF1BF63-E42B-4FC8-A723-3CA906260762}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{19ABEEF0-868A-479F-8794-CBC59D19C9B1}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{147A07F6-44B1-40A3-9414-5A679BAE3D41}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{38337181-3F32-4038-A0B1-51A0E5C8C22D}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{A55D454A-84FB-4DC4-B23B-37B36729C0E9}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{0F0DB5AD-67F7-4531-AF24-1A7A183B3EBB}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{382D3509-9FE5-4371-8E4C-2B3D6536FFD7}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{34628002-467E-4F21-94CB-9A22DD70D877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6638,134 +7195,161 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="117"/>
+      <c r="E6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6776,35 +7360,29 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="48" t="s">
-        <v>170</v>
+      <c r="A18" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="48" t="s">
-        <v>164</v>
+      <c r="A20" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="48" t="s">
-        <v>165</v>
+      <c r="A21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D2:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" location="promotion!A1" display="promotion" xr:uid="{2358AE1B-0AF6-4C89-8FCA-E1576BBCF7C0}"/>
-    <hyperlink ref="H5" location="offer!A1" display="offer" xr:uid="{ABFB4A6C-44BC-48F4-8F19-9CDCE9C01C96}"/>
-    <hyperlink ref="H6" location="offerDetail!A1" display="offerDetail" xr:uid="{9F0F5E3D-FB6A-424F-B58B-055B00DF2587}"/>
-    <hyperlink ref="H8" location="sameBook!A1" display="sameBook" xr:uid="{BDD85213-8E98-4DFA-B80D-91F5ED3AD736}"/>
-    <hyperlink ref="H9" location="sameCategory!A1" display="sameCategory" xr:uid="{1DF68790-E3CA-49F3-B191-947EBF5AF090}"/>
-    <hyperlink ref="H10" location="sameAuthor!A1" display="sameAuthor" xr:uid="{9E11ADE7-39FD-42F2-B3E0-982C06184BD5}"/>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{13809958-6CB7-4E36-BCD0-E314B25DC6CB}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{47B04368-3279-4F78-9A58-0CD1A38209AB}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{F1978D15-F852-4CF0-B8D4-CF8D58E0C573}"/>
@@ -6820,6 +7398,11 @@
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{CB39DCB2-A8E7-4BAE-9364-02FF50C25E80}"/>
     <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{2850D2FF-A9E7-451F-BAEE-708E7C04838E}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{D63A25C9-8916-4271-825E-117D5D728543}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{557A4E52-F685-40BA-AA66-E60E4AAB250E}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{D27E4B5B-0E67-4713-AA07-30009D45EAEF}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{CE4D06E2-D41F-4B10-B52C-B33288BDD01E}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{55647CF8-C04B-417A-8F77-B869B7099AFF}"/>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{8F9E2D03-FA56-4BC3-9A20-E30D6747FE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFA2D9-F6A6-445B-ACCE-E2B78B7E7E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE57BD54-05F5-4A7E-88FC-B6217C831467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin KLTN" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="256">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -1002,12 +1002,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1425,19 +1432,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1451,102 +1458,140 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,6 +1609,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,6 +1651,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1591,12 +1672,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1606,42 +1729,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,88 +1738,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2029,14 +2036,14 @@
       <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="38" t="s">
@@ -2045,12 +2052,12 @@
       <c r="C3" s="39">
         <v>16110069</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="38" t="s">
@@ -2059,14 +2066,14 @@
       <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="38" t="s">
@@ -2075,183 +2082,183 @@
       <c r="C5" s="39">
         <v>16110249</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="40"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2280,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2299,21 +2306,21 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="129"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="J3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2338,19 +2345,19 @@
         <v>81</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="120" t="s">
+      <c r="G4" s="106"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="60" t="s">
         <v>75</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -2360,12 +2367,14 @@
       <c r="E5" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="130" t="s">
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="121" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="61" t="s">
         <v>186</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2387,24 +2396,24 @@
       <c r="E6" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="122"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
@@ -2414,14 +2423,14 @@
       <c r="E7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="63" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2433,14 +2442,14 @@
       <c r="E8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="123" t="s">
+      <c r="H8" s="105"/>
+      <c r="I8" s="63" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2450,12 +2459,14 @@
       <c r="E9" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="130" t="s">
+      <c r="F9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="105"/>
+      <c r="I9" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2515,14 +2526,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{AB151D43-8F50-4F00-B871-59E714EA7C6E}"/>
@@ -2576,19 +2587,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
@@ -2605,7 +2616,7 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="59" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2623,10 +2634,10 @@
       <c r="E5" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>248</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2648,14 +2659,14 @@
       <c r="E6" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>247</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="59" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2671,10 +2682,10 @@
       <c r="E7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>246</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -2689,10 +2700,10 @@
       <c r="E8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="47" t="s">
         <v>244</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -2705,10 +2716,10 @@
       <c r="E9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="47" t="s">
         <v>245</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -2819,19 +2830,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -2853,16 +2864,16 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="117" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>232</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2873,14 +2884,14 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>233</v>
       </c>
       <c r="I6" s="13"/>
@@ -2893,10 +2904,10 @@
       <c r="E7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>237</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3007,7 +3018,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3025,19 +3036,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -3059,16 +3070,16 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="118" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>232</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3079,14 +3090,14 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>233</v>
       </c>
       <c r="I6" s="13"/>
@@ -3095,14 +3106,14 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>234</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3113,14 +3124,14 @@
       <c r="A8" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="13" t="s">
         <v>175</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="47" t="s">
         <v>235</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -3129,14 +3140,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="47" t="s">
         <v>236</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -3234,7 +3245,7 @@
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3252,26 +3263,26 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="K3" s="106" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="K3" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
@@ -3288,11 +3299,11 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -3305,17 +3316,17 @@
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>228</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -3328,15 +3339,15 @@
       <c r="F6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>229</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
@@ -3346,20 +3357,20 @@
       <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>230</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
@@ -3369,50 +3380,50 @@
       <c r="I8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
@@ -3492,7 +3503,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3509,19 +3520,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -3550,7 +3561,7 @@
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>231</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3692,19 +3703,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -3721,13 +3732,13 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="105"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
@@ -3737,22 +3748,22 @@
       <c r="E5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>215</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="105"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
@@ -3765,14 +3776,14 @@
       <c r="F6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>224</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
@@ -3785,7 +3796,7 @@
       <c r="F7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>219</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3803,7 +3814,7 @@
       <c r="F8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="47" t="s">
         <v>225</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -3819,7 +3830,7 @@
       <c r="F9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="47" t="s">
         <v>218</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -3837,7 +3848,7 @@
       <c r="F10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="47" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3845,11 +3856,11 @@
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="102"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
-      <c r="G12" s="102"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
@@ -3948,19 +3959,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
@@ -3977,12 +3988,12 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -3992,21 +4003,21 @@
       <c r="E5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>215</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -4019,14 +4030,14 @@
       <c r="F6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>216</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
@@ -4039,7 +4050,7 @@
       <c r="F7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>217</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -4057,7 +4068,7 @@
       <c r="F8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="47" t="s">
         <v>218</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -4073,7 +4084,7 @@
       <c r="F9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="47" t="s">
         <v>219</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -4091,7 +4102,7 @@
       <c r="F10" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="47" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4106,7 +4117,7 @@
       <c r="F11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="47" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4119,7 +4130,7 @@
       <c r="F12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="47" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4218,19 +4229,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -4259,7 +4270,7 @@
       <c r="F5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>226</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -4277,7 +4288,7 @@
       <c r="F6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>227</v>
       </c>
       <c r="I6" s="13"/>
@@ -4293,7 +4304,7 @@
       <c r="F7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>205</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -4423,26 +4434,26 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="K3" s="96" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="K3" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -4451,7 +4462,7 @@
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="13"/>
@@ -4459,63 +4470,63 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="13" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>199</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="55" t="s">
         <v>106</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
+      <c r="I6" s="48"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
@@ -4528,17 +4539,17 @@
       <c r="I7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
@@ -4551,15 +4562,15 @@
       <c r="I8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="13" t="s">
         <v>43</v>
       </c>
@@ -4572,37 +4583,37 @@
       <c r="I9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="55" t="s">
         <v>208</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="13" t="s">
         <v>138</v>
       </c>
@@ -4612,15 +4623,15 @@
       <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="13" t="s">
         <v>139</v>
       </c>
@@ -4630,51 +4641,51 @@
       <c r="G12" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="93" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="54" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="55" t="s">
         <v>208</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="13"/>
@@ -4745,7 +4756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
@@ -4765,34 +4778,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="75" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
@@ -4824,11 +4837,11 @@
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
@@ -4907,16 +4920,16 @@
       <c r="A12" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="51">
         <v>5</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="50" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="22"/>
@@ -4928,11 +4941,11 @@
       <c r="B13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
@@ -4976,11 +4989,11 @@
       <c r="B16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
@@ -5020,11 +5033,11 @@
       <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
@@ -5061,16 +5074,16 @@
     </row>
     <row r="22" spans="1:6" ht="63">
       <c r="A22" s="21"/>
-      <c r="B22" s="90">
+      <c r="B22" s="51">
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="50" t="s">
         <v>196</v>
       </c>
       <c r="F22" s="22"/>
@@ -5080,11 +5093,11 @@
       <c r="B23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
@@ -5105,26 +5118,26 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
-      <c r="B25" s="54">
+      <c r="B25" s="78">
         <v>15</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="81" t="s">
         <v>197</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
@@ -5132,11 +5145,11 @@
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="32.25" customHeight="1">
@@ -5150,7 +5163,7 @@
       <c r="D28" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="49" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="22"/>
@@ -5160,13 +5173,13 @@
       <c r="B29" s="32">
         <v>17</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="53" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="49" t="s">
         <v>198</v>
       </c>
       <c r="F29" s="22"/>
@@ -5176,11 +5189,11 @@
       <c r="B30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
@@ -5230,11 +5243,11 @@
       <c r="B34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
@@ -5256,11 +5269,11 @@
       <c r="B36" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
@@ -5275,23 +5288,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
@@ -5346,19 +5359,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5387,7 +5400,7 @@
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>211</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -5405,7 +5418,7 @@
       <c r="F6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="13"/>
@@ -5421,7 +5434,7 @@
       <c r="F7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>205</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -5548,19 +5561,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5589,7 +5602,7 @@
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>212</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -5607,7 +5620,7 @@
       <c r="F6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>213</v>
       </c>
       <c r="I6" s="13"/>
@@ -5623,7 +5636,7 @@
       <c r="F7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>214</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -5750,19 +5763,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5791,7 +5804,7 @@
       <c r="F5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>210</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -5930,17 +5943,17 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
@@ -6092,7 +6105,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6109,26 +6122,26 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="47" t="s">
         <v>173</v>
       </c>
       <c r="F4" s="13"/>
@@ -6140,13 +6153,13 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>232</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -6157,11 +6170,11 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>233</v>
       </c>
       <c r="I6" s="13"/>
@@ -6296,28 +6309,28 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
       <c r="J3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -6331,15 +6344,15 @@
       <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -6353,28 +6366,28 @@
       <c r="I5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
@@ -6383,13 +6396,13 @@
       <c r="I7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="41" t="s">
@@ -6398,217 +6411,217 @@
       <c r="I8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
       <c r="J12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="13"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6666,17 +6679,17 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6836,17 +6849,17 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6991,7 +7004,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7008,19 +7021,19 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -7048,10 +7061,10 @@
       <c r="E5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>233</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -7069,7 +7082,7 @@
       <c r="F6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>239</v>
       </c>
       <c r="I6" s="13"/>
@@ -7085,7 +7098,7 @@
       <c r="F7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>240</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -7198,7 +7211,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7215,28 +7228,28 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="47" t="s">
         <v>238</v>
       </c>
       <c r="F4" s="13"/>
@@ -7249,16 +7262,16 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="102" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="47" t="s">
         <v>243</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -7269,14 +7282,14 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="47" t="s">
         <v>232</v>
       </c>
       <c r="I6" s="13"/>
@@ -7292,7 +7305,7 @@
       <c r="F7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="47" t="s">
         <v>242</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -7310,7 +7323,7 @@
       <c r="F8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="47" t="s">
         <v>241</v>
       </c>
       <c r="I8" s="7" t="s">

--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE57BD54-05F5-4A7E-88FC-B6217C831467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EA299-4ACD-4AD2-A642-CCC2B718D55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin KLTN" sheetId="2" r:id="rId1"/>
@@ -30,18 +30,17 @@
     <sheet name="role" sheetId="10" r:id="rId15"/>
     <sheet name="customer" sheetId="8" r:id="rId16"/>
     <sheet name="employee" sheetId="7" r:id="rId17"/>
-    <sheet name="nxb" sheetId="6" r:id="rId18"/>
-    <sheet name="book" sheetId="3" r:id="rId19"/>
-    <sheet name="author" sheetId="5" r:id="rId20"/>
-    <sheet name="seri" sheetId="22" r:id="rId21"/>
-    <sheet name="category" sheetId="4" r:id="rId22"/>
+    <sheet name="book" sheetId="3" r:id="rId18"/>
+    <sheet name="author" sheetId="5" r:id="rId19"/>
+    <sheet name="seri" sheetId="22" r:id="rId20"/>
+    <sheet name="category" sheetId="4" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="238">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -167,12 +166,6 @@
   </si>
   <si>
     <t>nxb</t>
-  </si>
-  <si>
-    <t>Thông tin nhà xuất bản</t>
-  </si>
-  <si>
-    <t>NxbID</t>
   </si>
   <si>
     <t>B</t>
@@ -469,9 +462,6 @@
     <t>NameBook</t>
   </si>
   <si>
-    <t>Publish</t>
-  </si>
-  <si>
     <t>PriceBook</t>
   </si>
   <si>
@@ -490,33 +480,12 @@
     <t>NameAuthor</t>
   </si>
   <si>
-    <t>DetailAuthor</t>
-  </si>
-  <si>
-    <t>ImgAuthor</t>
-  </si>
-  <si>
-    <t>NameNXB</t>
-  </si>
-  <si>
-    <t>DetailNXB</t>
-  </si>
-  <si>
-    <t>ImgNXB</t>
-  </si>
-  <si>
     <t>Thông tin của cửa hàng (Store)</t>
   </si>
   <si>
     <t>SeriName</t>
   </si>
   <si>
-    <t>SeriDetail</t>
-  </si>
-  <si>
-    <t>SeriImg</t>
-  </si>
-  <si>
     <t>Thông tin của người dùng (profile)</t>
   </si>
   <si>
@@ -635,9 +604,6 @@
   </si>
   <si>
     <t>Lưu trữ thông tin tác giả</t>
-  </si>
-  <si>
-    <t>Lưu trữ thông tin nhà xuất bản</t>
   </si>
   <si>
     <t>Lưu trữ thông tin seri (ví dụ với một bộ truyện doraemon có nhiều tập , thì sẽ có chung seri là doraemon</t>
@@ -662,18 +628,12 @@
     <t>Tên sách</t>
   </si>
   <si>
-    <t>Năm xuất bản</t>
-  </si>
-  <si>
     <t>Mã thể loại</t>
   </si>
   <si>
     <t>Mã tác giả</t>
   </si>
   <si>
-    <t>Mã nxb</t>
-  </si>
-  <si>
     <t>Đơn giá</t>
   </si>
   <si>
@@ -689,135 +649,6 @@
     <t>double</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Đối với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Sale" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">thì sẽ thay đổi dựa theo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Publish" 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ví dụ :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>publish mặc định =1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-với sách cũ đã xuất bản được trên 5 năm 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2020-publish&gt;=5" thì Sale = 0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-với sách cũ đã xuất bản được trên 10 năm 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"2020-publish&gt;=10" thì Sale = 0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-và khi đó giá của sách sẽ được tính bằng công thức
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"PriceBook*(1-publish)"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Tên thể loại </t>
   </si>
   <si>
@@ -825,12 +656,6 @@
   </si>
   <si>
     <t>Tên seri</t>
-  </si>
-  <si>
-    <t>Thông tin seri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hình </t>
   </si>
   <si>
     <t>id tài khoản</t>
@@ -906,12 +731,6 @@
   </si>
   <si>
     <t>SĐT</t>
-  </si>
-  <si>
-    <t>Tên NXB</t>
-  </si>
-  <si>
-    <t>Thông tin NXB</t>
   </si>
   <si>
     <t>tài khoản đăng nhập</t>
@@ -1555,6 +1374,27 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,30 +1407,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,43 +1476,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2304,31 +2123,31 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+        <v>93</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2342,22 +2161,22 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="108"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="108"/>
+      <c r="K4" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -2365,23 +2184,23 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="H5" s="105"/>
+        <v>124</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="113"/>
       <c r="I5" s="61" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
@@ -2394,90 +2213,88 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>234</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
+        <v>112</v>
+      </c>
+      <c r="L6" s="110"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="110"/>
+        <v>227</v>
+      </c>
+      <c r="H7" s="116"/>
       <c r="I7" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="H8" s="105"/>
+        <v>235</v>
+      </c>
+      <c r="G8" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="113"/>
       <c r="I8" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="105"/>
+        <v>104</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="113"/>
       <c r="I9" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2485,12 +2302,12 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2498,17 +2315,17 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2516,31 +2333,30 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{AB151D43-8F50-4F00-B871-59E714EA7C6E}"/>
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{C7D4CD79-CA9C-4508-9B66-77B132F3D7AE}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{5988E9F6-3F48-407D-BABE-B9A605C922C4}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{FE06E679-1DA6-4AAD-8DB7-D1C24AC5D6CB}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{E8157085-F3BE-4646-AEB0-1E620CB6452E}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{3A4E49CF-BE9E-4D82-9821-5306909B994A}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{218AB253-B43A-45A3-92C7-DAA01BE76D45}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{D3D34B53-D0D1-4A0E-B788-06296505841D}"/>
@@ -2585,10 +2401,10 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -2609,21 +2425,21 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2632,23 +2448,23 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2657,83 +2473,81 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="I6" s="13"/>
       <c r="K6" s="59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2741,12 +2555,12 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2754,17 +2568,17 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2772,12 +2586,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2603,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{A53B38C4-868D-45C8-B0AA-FD9E56CA26F1}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{FDC3993D-3371-460E-A376-619F522F49A5}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{99D2AC59-E76B-4929-AF73-CA199C239FF4}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{8EC23D78-70EC-4C6E-B4C6-C65EB604DA5B}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{FBAEA6E2-6332-4523-B88E-381FCA4E3573}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{F93F6FE0-5487-4DC3-9140-C96D8F803630}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{8D043218-D5CF-4080-9BB0-A0AD6E59E359}"/>
@@ -2815,7 +2628,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2828,10 +2641,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -2852,12 +2665,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2865,19 +2678,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2886,56 +2699,54 @@
       </c>
       <c r="D6" s="117"/>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2943,12 +2754,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2956,17 +2767,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2974,12 +2785,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +2803,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{29C7B46E-6A59-44B9-8F0B-2619144CEE6E}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{BEE8BE34-8142-46AD-AB9D-B64E49F30E2F}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{6AB8C989-0903-4EBB-A8EF-00A66F676D5A}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{B39A3640-A933-4773-9C2C-603D74546515}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{ADC93B47-1CFD-48B0-96FE-5933C30F7F58}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{1C39A468-5851-482E-A2E4-F2BA8E45C075}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{47016BF0-9415-4D36-B22A-EE91781C0E60}"/>
@@ -3018,7 +2828,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3034,10 +2844,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -3058,12 +2868,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3071,19 +2881,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3092,76 +2902,74 @@
       </c>
       <c r="D6" s="118"/>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="96"/>
       <c r="E7" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="96"/>
       <c r="E8" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="D9" s="96"/>
       <c r="E9" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3169,12 +2977,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3182,17 +2990,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3200,12 +3008,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3027,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{F8F01B97-6813-41C9-88F8-4E05CFF70377}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{7F2AA7D7-E6D3-4994-953F-64A54AF6D06E}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{C521D7F4-496F-4504-B3C0-E205BD10CF4B}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{D412BA94-B269-4CAF-9AFA-4A1B5341102D}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{70A8CD79-6C12-442A-88CD-F5609337E3FF}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{384AD459-6FEF-4790-93B9-710578F4479F}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{36361E5A-63DE-4F46-A74B-7FEBA7634772}"/>
@@ -3245,7 +3052,7 @@
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3261,10 +3068,10 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -3277,7 +3084,7 @@
       <c r="F3" s="101"/>
       <c r="G3" s="101"/>
       <c r="K3" s="119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L3" s="120"/>
       <c r="M3" s="120"/>
@@ -3292,12 +3099,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="121"/>
       <c r="L4" s="121"/>
@@ -3311,16 +3118,16 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K5" s="121"/>
       <c r="L5" s="121"/>
@@ -3334,13 +3141,13 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="I6" s="13"/>
       <c r="K6" s="121"/>
@@ -3350,21 +3157,19 @@
       <c r="O6" s="121"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="121"/>
       <c r="L7" s="121"/>
@@ -3374,11 +3179,11 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="9"/>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="121"/>
       <c r="L8" s="121"/>
@@ -3389,7 +3194,7 @@
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="121"/>
       <c r="L9" s="121"/>
@@ -3399,7 +3204,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" s="121"/>
       <c r="L10" s="121"/>
@@ -3409,7 +3214,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11" s="121"/>
       <c r="L11" s="121"/>
@@ -3427,12 +3232,12 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3440,17 +3245,17 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3458,12 +3263,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3282,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{7EDDB62A-5BDE-4E5B-884B-B940FA066FA5}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{06F57309-0536-4223-B508-CD8DD4989E90}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{74A32CCF-0F1B-4B71-9EC7-733BB2BF0179}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{DA53A718-DB16-4156-9BA3-34C66A958A00}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{07193250-578A-4356-8324-2907EED43B11}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{D7F64AAA-8DFA-4189-BB8D-7AC44D4E7484}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{DB1F2636-DC92-4D21-B50B-A1D1CE72970D}"/>
@@ -3518,10 +3322,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -3542,12 +3346,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3556,16 +3360,16 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3575,35 +3379,33 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3611,12 +3413,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3624,17 +3426,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3642,12 +3444,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3461,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{7A949A29-397C-4A75-A587-C50D25AB7D4B}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{EFE514CB-7FB4-4E18-A280-47EC02274850}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{A7A3D29E-1F2A-4D5D-9856-C32352B103D4}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{3F634013-8D76-4D68-AFB7-9B19B320181F}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{6A8B592E-F45B-4235-8173-6EFCB75532C6}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{6D3F7AE6-CAC5-49CE-AE69-5C2AAC4FBE39}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{4E2B6834-3987-4BA7-A0C9-9F863AFD1B59}"/>
@@ -3685,7 +3486,7 @@
   <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3701,10 +3502,10 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -3725,15 +3526,15 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4" s="122"/>
       <c r="N4" s="122"/>
@@ -3746,19 +3547,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L5" s="123" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="M5" s="124"/>
       <c r="N5" s="124"/>
@@ -3771,13 +3572,13 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I6" s="13"/>
       <c r="L6" s="124"/>
@@ -3786,75 +3587,73 @@
       <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="56"/>
     </row>
@@ -3864,12 +3663,12 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3877,17 +3676,17 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3895,12 +3694,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3717,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{083BA2CE-29E6-4562-AB38-14BBF7ECF660}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{8A8E4896-4959-4B70-A255-3937B0161A95}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{E098415B-49CC-4D66-A486-72ACB2282A14}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{115CBCB1-1F79-47DA-8D71-E547D1E6AEC8}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{7384BDDF-C8F1-44DA-9DE5-979CF3D9C15D}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{3F9D4122-48AF-4538-BBC2-E81D84DEAE8C}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{33E8FDCA-1F68-4D66-A8E4-6BFB11227558}"/>
@@ -3957,10 +3755,10 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -3981,15 +3779,15 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4" s="122"/>
       <c r="N4" s="122"/>
@@ -4001,19 +3799,19 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L5" s="123" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="M5" s="124"/>
       <c r="N5" s="124"/>
@@ -4025,13 +3823,13 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I6" s="13"/>
       <c r="L6" s="124"/>
@@ -4040,108 +3838,106 @@
       <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4149,17 +3945,17 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4167,12 +3963,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +3986,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{E60DAD1C-C3A7-42EE-A4BB-F86128C4DAED}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{5F08E26E-E8BB-43F1-814D-13258DC351D8}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{0E96E4AE-136E-44F3-87CD-F50A3357EFEE}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{7FD21C9E-2388-43DA-BE99-C5F20D756C0E}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{754850D6-ED36-4714-AC3C-51957D1EAD52}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{230F7DF7-689E-44E3-8308-96C2197B9EEB}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{81684FA1-0C64-4021-90FC-437429B41C9E}"/>
@@ -4208,208 +4003,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A2:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
-      <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="I9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:G3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{ED01F5FE-DA22-4B9A-B94D-9F988223BF84}"/>
-    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{9B06B574-75F4-4E41-B8CC-2A3AF10028DA}"/>
-    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{168A9894-7DA7-4743-9BD3-92CD840AE15C}"/>
-    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{A3B08CE1-4F14-4057-A9C1-3D43DFB6EF9A}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{DF882845-9B68-43D4-A1C3-553E40F12BAC}"/>
-    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{CDC997DB-0FFA-41EB-BD6E-6F2587A67271}"/>
-    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{CD4AC46A-D442-44F0-A943-DF04FDEC0C3A}"/>
-    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{A6A9AA6C-6790-4DEB-B36F-D51CD398E8B2}"/>
-    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{4A589149-4DAC-47D9-B08B-BDFEB80310B1}"/>
-    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{FB7FF2EC-B728-4471-84D2-A7937BCF076A}"/>
-    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{1DA17C00-4A99-4608-A947-082746387A9A}"/>
-    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{EB97F294-7DE7-4B5E-A32E-4880230C6754}"/>
-    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{735114E2-CF25-479E-A4DC-5689A20EB45D}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{4FDF94BD-CCC0-4509-B189-AB844A370E64}"/>
-    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{40C4FC72-9BB6-4B8F-8CE5-2851FD2753FF}"/>
-    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{89666D1B-F74D-46C3-BC66-643E79DCEB87}"/>
-    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{81302915-776D-47CA-AB34-1058EC224BE0}"/>
-    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{5929C140-5C0C-4592-867D-8B236A8D984A}"/>
-    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{6F9F7CA3-7A7E-42CC-929C-027CF1BF7B94}"/>
-    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{2B05010A-26FF-4EC6-A985-AFF0BB76B0E5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:O21"/>
   <sheetViews>
@@ -4432,7 +4025,7 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>32</v>
@@ -4448,7 +4041,7 @@
       <c r="F3" s="101"/>
       <c r="G3" s="101"/>
       <c r="K3" s="128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L3" s="129"/>
       <c r="M3" s="129"/>
@@ -4468,11 +4061,9 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="123" t="s">
-        <v>209</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K4" s="123"/>
       <c r="L4" s="123"/>
       <c r="M4" s="123"/>
       <c r="N4" s="123"/>
@@ -4484,16 +4075,16 @@
       </c>
       <c r="D5" s="125"/>
       <c r="E5" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K5" s="123"/>
       <c r="L5" s="123"/>
@@ -4506,15 +4097,9 @@
         <v>38</v>
       </c>
       <c r="D6" s="126"/>
-      <c r="E6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="13"/>
       <c r="I6" s="48"/>
       <c r="K6" s="123"/>
       <c r="L6" s="123"/>
@@ -4523,21 +4108,19 @@
       <c r="O6" s="123"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="126"/>
       <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="123"/>
       <c r="L7" s="123"/>
@@ -4547,20 +4130,20 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="123"/>
       <c r="L8" s="123"/>
@@ -4571,17 +4154,11 @@
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="D9" s="126"/>
-      <c r="E9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>203</v>
-      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="123"/>
       <c r="L9" s="123"/>
@@ -4591,17 +4168,17 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K10" s="123"/>
       <c r="L10" s="123"/>
@@ -4611,14 +4188,14 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="126"/>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>29</v>
@@ -4633,13 +4210,13 @@
       <c r="A12" s="13"/>
       <c r="D12" s="126"/>
       <c r="E12" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K12" s="123"/>
       <c r="L12" s="123"/>
@@ -4649,17 +4226,17 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K13" s="123"/>
       <c r="L13" s="123"/>
@@ -4669,17 +4246,17 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="127"/>
       <c r="E14" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K14" s="123"/>
       <c r="L14" s="123"/>
@@ -4692,17 +4269,17 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4710,12 +4287,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4734,7 +4311,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{9512F98B-1E02-4D8A-8CF6-52385D9DF073}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{AB58B097-BD4E-42ED-8469-6443D3F3D38A}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{29D0FFFB-C92E-4719-97A2-C529BD01BAEB}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{CF0FAA2A-8608-4BD2-904F-4E4F7A479506}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{406E0470-47AF-49D1-B7FF-FFAAB551C2B4}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{9DA4E5C1-1A96-48AC-AC7E-67AA073FCBD6}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{08E0BB1E-1512-4511-9114-E9C0CEBFE27E}"/>
@@ -4752,12 +4328,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="47"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="47"/>
+      <c r="I7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="I9" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:G3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
+    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
+    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
+    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1100-000012000000}"/>
+    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{3B0CFDC1-B20A-467E-9ECF-13CCCDBCCCB1}"/>
+    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{31219FE2-31DB-4E0E-8432-14D86A63614A}"/>
+    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{28E92A3E-6862-4D93-98FF-CD093791756C}"/>
+    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{A29FA7AE-09AD-464D-A86C-50B8E41B42DE}"/>
+    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{FE23CB54-9EDD-425C-97FA-981EE4A12E86}"/>
+    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{AAF79551-BC77-4DC7-A90D-3346CEAA18A1}"/>
+    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{FB7B64F2-397E-4029-A36A-66DF6305ACDF}"/>
+    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{48B0DD6D-4547-4734-A375-5B9CF01D7A3D}"/>
+    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{0646B9A2-99E5-44C4-8C5F-A4D03B48E8F3}"/>
+    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{448D198B-71F3-47D1-BBAD-720E85365C6C}"/>
+    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{0CEA2A9A-E773-4F8A-9B88-EE0F0598A773}"/>
+    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{3E8735B3-CAC7-40D0-9519-425A000F5DA7}"/>
+    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{552B122E-1FAA-4BC7-81AB-431DC6F2777B}"/>
+    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{32BC8FA1-0CCF-4D54-B252-368A0D2FC3AC}"/>
+    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{7293BFF3-5AFC-4D95-8239-C40E50B72CA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4778,34 +4541,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="81" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
@@ -4832,21 +4595,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B8" s="28">
         <v>1</v>
@@ -4858,13 +4621,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B9" s="28">
         <v>2</v>
@@ -4876,13 +4639,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B10" s="28">
         <v>3</v>
@@ -4894,106 +4657,96 @@
         <v>39</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="28">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>192</v>
-      </c>
+      <c r="A11" s="45"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B12" s="51">
         <v>5</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+        <v>42</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B14" s="28">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B15" s="28">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21"/>
       <c r="B16" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
@@ -5002,13 +4755,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="22"/>
     </row>
@@ -5018,26 +4771,26 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21"/>
       <c r="B19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
@@ -5046,13 +4799,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="22"/>
     </row>
@@ -5062,13 +4815,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -5078,26 +4831,26 @@
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21"/>
       <c r="B23" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+        <v>67</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
@@ -5106,50 +4859,50 @@
         <v>14</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
-      <c r="B25" s="78">
+      <c r="B25" s="72">
         <v>15</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>197</v>
+      <c r="C25" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>186</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21"/>
       <c r="B27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+        <v>72</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="32.25" customHeight="1">
@@ -5158,13 +4911,13 @@
         <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>77</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -5174,26 +4927,26 @@
         <v>17</v>
       </c>
       <c r="C29" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>198</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="21"/>
       <c r="B30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
+        <v>81</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
@@ -5202,10 +4955,10 @@
         <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="22"/>
@@ -5216,10 +4969,10 @@
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="22"/>
@@ -5230,10 +4983,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="22"/>
@@ -5241,13 +4994,13 @@
     <row r="34" spans="1:6">
       <c r="A34" s="21"/>
       <c r="B34" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
@@ -5256,10 +5009,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="22"/>
@@ -5267,13 +5020,13 @@
     <row r="36" spans="1:6">
       <c r="A36" s="21"/>
       <c r="B36" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
+        <v>91</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
@@ -5288,23 +5041,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
@@ -5315,7 +5068,6 @@
     <hyperlink ref="C8" location="book!A1" display="book" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C9" location="category!A1" display="category" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C10" location="author!A1" display="author" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C11" location="nxb!A1" display="nxb" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="C14" location="employee!A1" display="employee" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="C15" location="customer!A1" display="customer" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="C17" location="user!A1" display="user" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
@@ -5338,213 +5090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A2:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="I9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:G3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
-    <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
-    <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
-    <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{00000000-0004-0000-1100-000012000000}"/>
-    <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{3B0CFDC1-B20A-467E-9ECF-13CCCDBCCCB1}"/>
-    <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{31219FE2-31DB-4E0E-8432-14D86A63614A}"/>
-    <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{28E92A3E-6862-4D93-98FF-CD093791756C}"/>
-    <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{A29FA7AE-09AD-464D-A86C-50B8E41B42DE}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{5D363272-93ED-4D39-A082-D7F111AB5060}"/>
-    <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{FE23CB54-9EDD-425C-97FA-981EE4A12E86}"/>
-    <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{AAF79551-BC77-4DC7-A90D-3346CEAA18A1}"/>
-    <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{FB7B64F2-397E-4029-A36A-66DF6305ACDF}"/>
-    <hyperlink ref="A14" location="role!A1" display="role" xr:uid="{48B0DD6D-4547-4734-A375-5B9CF01D7A3D}"/>
-    <hyperlink ref="A16" location="comment!A1" display="comment" xr:uid="{0646B9A2-99E5-44C4-8C5F-A4D03B48E8F3}"/>
-    <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{448D198B-71F3-47D1-BBAD-720E85365C6C}"/>
-    <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{0CEA2A9A-E773-4F8A-9B88-EE0F0598A773}"/>
-    <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{3E8735B3-CAC7-40D0-9519-425A000F5DA7}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{552B122E-1FAA-4BC7-81AB-431DC6F2777B}"/>
-    <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{32BC8FA1-0CCF-4D54-B252-368A0D2FC3AC}"/>
-    <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{7293BFF3-5AFC-4D95-8239-C40E50B72CA1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A73AB4-EC41-4C85-B047-178D9BE6708E}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5559,10 +5109,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="131" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="131"/>
       <c r="F2" s="131"/>
@@ -5583,12 +5133,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5597,16 +5147,16 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="43" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5614,57 +5164,43 @@
         <v>38</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>213</v>
-      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>214</v>
-      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="47"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5672,12 +5208,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5685,17 +5221,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5703,12 +5239,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5720,7 +5256,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{DA0347D2-6C38-4280-98EB-917986B845EE}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{0568EAF5-85CD-47B0-AD4E-50DE0789C475}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{3DF227FC-3668-4FAB-92F6-F6D1FDE55014}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{1676857F-C4C6-41B9-BDC5-A87E919B5A41}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{54BDFA46-B207-4B44-B50F-0B99D5FA36E4}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{26EB90D5-CCB2-4FC0-A43B-A3C3F3DAF356}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{BBC9BEB5-FC9F-4865-8235-845050726948}"/>
@@ -5741,12 +5276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5761,7 +5296,7 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>35</v>
@@ -5790,7 +5325,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5799,16 +5334,16 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5818,35 +5353,33 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5854,12 +5387,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5867,17 +5400,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5885,12 +5418,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5906,7 +5439,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{654BCB3C-EF2D-4C20-9DCD-E9748EB1DED4}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{3C8F2582-F264-4C55-ADB8-8CF824C2C6B8}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{08FAEDD2-AE11-4DCB-861A-0EE328170189}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{2DF1A803-B1FA-4AC5-B6B2-A516D2891DCD}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{2AD7B077-9FF2-4F2A-86D5-A87D3DDBC449}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{BE9FD408-6CE8-4D09-981B-7F3488BA67D7}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{8D905F8B-BB1C-4E46-891C-B26B98DDF78D}"/>
@@ -5941,10 +5473,10 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
@@ -5963,7 +5495,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="13"/>
       <c r="H4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5976,7 +5508,7 @@
       </c>
       <c r="F5" s="13"/>
       <c r="H5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5985,11 +5517,11 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" s="13"/>
       <c r="H6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6000,29 +5532,29 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="H9" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6030,12 +5562,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6043,17 +5575,17 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6061,12 +5593,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6104,8 +5636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB1E8-F571-4E88-B07D-6DCC5A60D412}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6120,10 +5652,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="90"/>
@@ -6142,11 +5674,11 @@
         <v>30</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6154,16 +5686,16 @@
         <v>35</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6172,43 +5704,41 @@
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6216,12 +5746,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6229,17 +5759,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6247,12 +5777,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6265,7 +5795,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{6BEB85AB-0E6C-4852-A598-52BFA0FDC1BA}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{DA6228A4-1E8B-4E18-8F61-0B663403FB15}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{291B3C63-814C-4214-8E99-436DEF72875B}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{03BF1C6E-6D18-46D7-B328-3853E708C53E}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{DE29E650-D281-48D3-8C2B-A942C52361BF}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{5B88E3AB-E282-467F-934A-F844444A3F77}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{371711B4-5D92-4925-91EE-CBC9BDA36B67}"/>
@@ -6307,10 +5836,10 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
@@ -6321,10 +5850,10 @@
       <c r="E3" s="86"/>
       <c r="F3" s="87"/>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
@@ -6342,10 +5871,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="96"/>
       <c r="L4" s="96"/>
@@ -6360,14 +5889,14 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J5" s="100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" s="100"/>
       <c r="L5" s="100"/>
@@ -6390,11 +5919,9 @@
       <c r="P6" s="100"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="100"/>
@@ -6406,10 +5933,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
@@ -6422,7 +5949,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
@@ -6434,7 +5961,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
@@ -6446,7 +5973,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
@@ -6459,10 +5986,10 @@
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
       <c r="J12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12" s="96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L12" s="96"/>
       <c r="M12" s="96"/>
@@ -6472,10 +5999,10 @@
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L13" s="97"/>
       <c r="M13" s="97"/>
@@ -6485,7 +6012,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="98"/>
       <c r="L14" s="98"/>
@@ -6505,7 +6032,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="98"/>
@@ -6516,7 +6043,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17" s="98"/>
       <c r="L17" s="98"/>
@@ -6527,7 +6054,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K18" s="98"/>
       <c r="L18" s="98"/>
@@ -6547,7 +6074,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K20" s="98"/>
       <c r="L20" s="98"/>
@@ -6558,7 +6085,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K21" s="98"/>
       <c r="L21" s="98"/>
@@ -6637,7 +6164,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{8C9422BF-9078-4D7A-AB05-734D60FF4623}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{4587CAE3-4164-4F9E-AAFC-7ED296A7F48B}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{6314A9E4-B725-403F-9B45-9DD84E2F5DC7}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{055D5236-26C3-4348-9021-6FDD1258D3C2}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{4209A5FA-67AD-40DC-B25E-0ED284EB8544}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{83E4CB2C-2939-434F-AA0E-527A4FADAE14}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{6D74F183-C7C3-4857-A1ED-6D3DA6F25AD3}"/>
@@ -6677,10 +6203,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
@@ -6701,7 +6227,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6710,11 +6236,11 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6724,35 +6250,33 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6760,12 +6284,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6773,17 +6297,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6791,12 +6315,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6808,7 +6332,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{5508059C-8F6D-4021-8C24-CA83D64FCDDA}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{434E39FF-16A4-4883-95FF-62A8EE035F38}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{170C1124-145E-4CEA-AD82-6FD3BCE31BE6}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{FE9AE75F-7923-4420-9AE8-065A17768E8A}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{BDF0C300-1948-436E-813C-60B2DBB375B9}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{325F807E-335D-4D44-BD7F-64587C935E75}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{77D8B86A-898E-4A85-A200-84A6756A46CD}"/>
@@ -6834,7 +6357,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6847,10 +6370,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
@@ -6871,7 +6394,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6880,11 +6403,11 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6894,35 +6417,33 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6930,12 +6451,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6943,17 +6464,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6961,12 +6482,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +6499,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{E61AA14C-0F11-4A24-8299-1CD13306EF81}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{BF394B6F-D0AA-4C3F-87D2-CED1B96595F6}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{345EA843-C3F0-460A-B8E3-1DC8F44E1F63}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{9B2FCFD6-EFF2-410D-8DC5-622EB0DF9C52}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{E58633A3-CB53-47FE-B475-57F0CCE432DF}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{567FBD01-386C-4686-9A08-A46603B72E39}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{7C9F4B7C-4E45-4089-A0AD-9C25C6CCFEC2}"/>
@@ -6987,13 +6507,13 @@
     <hyperlink ref="A17" location="rating!A1" display="rating" xr:uid="{979FDDE9-DEB9-492A-9092-3313B546CE62}"/>
     <hyperlink ref="A20" location="orders!A1" display="order" xr:uid="{3CC69B3D-7DAA-4514-AEEA-DBF6C0C2B1BD}"/>
     <hyperlink ref="A21" location="orderDetails!A1" display="orderDetail" xr:uid="{EA1FE4E5-E524-4DB2-8719-A95B00C0B26F}"/>
-    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{1B0BC191-0973-4C9B-A710-6816323C7D8F}"/>
     <hyperlink ref="A18" location="favorite!A1" display="favorite" xr:uid="{9C93AC15-1F6F-4C3F-A0D0-B4DF9F3DD9C8}"/>
     <hyperlink ref="I5" location="offer!A1" display="offer" xr:uid="{70A7F8B0-5D4A-48C0-A672-EDF92B73A79B}"/>
     <hyperlink ref="I9" location="sameAuthor!A1" display="sameAuthor" xr:uid="{F65BCACE-D1AE-4945-A80A-18D72E2902C9}"/>
     <hyperlink ref="I8" location="sameCategory!A1" display="sameCategory" xr:uid="{03F22236-4D16-4A82-910C-2D7A7EDAAD68}"/>
     <hyperlink ref="I7" location="sameBook!A1" display="sameBook" xr:uid="{A9BD0CC9-0098-4DC9-A85B-01767DB7D29F}"/>
     <hyperlink ref="I4" location="promotion!A1" display="promotion" xr:uid="{827C9AC1-A4FC-4F82-AE37-ECEC825F5384}"/>
+    <hyperlink ref="A8" location="seri!A1" display="seri" xr:uid="{1B0BC191-0973-4C9B-A710-6816323C7D8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7004,7 +6524,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7019,10 +6539,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -7043,12 +6563,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7056,19 +6576,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7077,59 +6597,57 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7137,12 +6655,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7150,17 +6668,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -7168,12 +6686,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7185,7 +6703,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{B723BB69-43CD-43C2-B26B-C71BBB9D49E3}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{9CF21268-8324-4F03-9226-250CAFE7B77E}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{EDA39A96-4486-41E3-8108-A0069D97518A}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{5738FA1B-4A7A-42D6-A7CA-FCA8ED8D0881}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{8E77C450-32A9-45FC-929E-55E6D4414A7D}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{EC119F0B-146A-4A54-A947-4D2777F941BD}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{BA92B43E-E4D7-4EA8-A97E-4C8BE9A132C8}"/>
@@ -7211,7 +6728,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7226,10 +6743,10 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="103"/>
       <c r="F2" s="103"/>
@@ -7250,12 +6767,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7263,19 +6780,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7287,63 +6804,61 @@
         <v>34</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7351,12 +6866,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7364,17 +6879,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -7382,12 +6897,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7400,7 +6915,6 @@
     <hyperlink ref="A4" location="book!A1" display="book" xr:uid="{47B04368-3279-4F78-9A58-0CD1A38209AB}"/>
     <hyperlink ref="A5" location="category!A1" display="category" xr:uid="{F1978D15-F852-4CF0-B8D4-CF8D58E0C573}"/>
     <hyperlink ref="A6" location="author!A1" display="author" xr:uid="{5F02C941-E958-4928-8782-379199F7ECB0}"/>
-    <hyperlink ref="A7" location="nxb!A1" display="nxb" xr:uid="{EC14D6CF-22A4-4520-9802-3B1D80BEA28B}"/>
     <hyperlink ref="A10" location="employee!A1" display="employee" xr:uid="{07337194-ADF3-44EA-B728-07F490B6670C}"/>
     <hyperlink ref="A11" location="customer!A1" display="customer" xr:uid="{E68A80C9-6A0E-46FC-B58D-28C21F8A7C67}"/>
     <hyperlink ref="A13" location="user!A1" display="user" xr:uid="{47895FD2-0125-4DEC-B67E-F3DF5DB1595C}"/>

--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\KLTN\github\BookStoreWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EA299-4ACD-4AD2-A642-CCC2B718D55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CA123-2383-40F6-B5D2-202C84B57E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin KLTN" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="241">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -815,6 +815,15 @@
   </si>
   <si>
     <t>mệnh giá giảm</t>
+  </si>
+  <si>
+    <t>ListBook</t>
+  </si>
+  <si>
+    <t>arrayObject</t>
+  </si>
+  <si>
+    <t>Danh sachs nhung sach trong su kien</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1374,11 +1383,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1392,24 +1419,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,6 +1485,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,27 +1518,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,6 +1569,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2125,21 +2135,21 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
@@ -2164,19 +2174,19 @@
         <v>79</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="60" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="111"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -2189,10 +2199,10 @@
       <c r="F5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="113"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="61" t="s">
         <v>176</v>
       </c>
@@ -2221,7 +2231,7 @@
       <c r="G6" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="H6" s="107" t="s">
         <v>234</v>
       </c>
       <c r="I6" s="62"/>
@@ -2229,10 +2239,10 @@
       <c r="K6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="111"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="106"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -2246,7 +2256,7 @@
       <c r="G7" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="116"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="63" t="s">
         <v>82</v>
       </c>
@@ -2262,10 +2272,10 @@
       <c r="F8" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="113"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="63" t="s">
         <v>84</v>
       </c>
@@ -2279,10 +2289,10 @@
       <c r="F9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="113"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="63" t="s">
         <v>86</v>
       </c>
@@ -2343,14 +2353,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{AB151D43-8F50-4F00-B871-59E714EA7C6E}"/>
@@ -2381,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2549,50 +2559,89 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="13"/>
+      <c r="E12" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="132" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="13"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="41" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="41" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="41" t="s">
         <v>127</v>
       </c>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4541,34 +4590,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="75" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
@@ -4600,11 +4649,11 @@
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
@@ -4694,11 +4743,11 @@
       <c r="B13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
@@ -4742,11 +4791,11 @@
       <c r="B16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
@@ -4786,11 +4835,11 @@
       <c r="B19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
@@ -4846,11 +4895,11 @@
       <c r="B23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
@@ -4871,26 +4920,26 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
-      <c r="B25" s="72">
+      <c r="B25" s="78">
         <v>15</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="81" t="s">
         <v>186</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
@@ -4898,11 +4947,11 @@
       <c r="B27" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="32.25" customHeight="1">
@@ -4942,11 +4991,11 @@
       <c r="B30" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
@@ -4996,11 +5045,11 @@
       <c r="B34" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
@@ -5022,11 +5071,11 @@
       <c r="B36" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
@@ -5041,23 +5090,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
@@ -5636,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB1E8-F571-4E88-B07D-6DCC5A60D412}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/KLTN_Document.xlsx
+++ b/KLTN_Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\KLTN\github\BookStoreWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CA123-2383-40F6-B5D2-202C84B57E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0FC4FF-5C5E-4808-BDF3-E24F93B7044D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="243">
   <si>
     <t>Tên sinh viên 1</t>
   </si>
@@ -817,13 +817,19 @@
     <t>mệnh giá giảm</t>
   </si>
   <si>
-    <t>ListBook</t>
-  </si>
-  <si>
     <t>arrayObject</t>
   </si>
   <si>
     <t>Danh sachs nhung sach trong su kien</t>
+  </si>
+  <si>
+    <t>IsShow</t>
+  </si>
+  <si>
+    <t>cho phép hiển thị bên home page</t>
+  </si>
+  <si>
+    <t>ListBookIn</t>
   </si>
 </sst>
 </file>
@@ -1365,6 +1371,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1383,6 +1390,27 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1395,30 +1423,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,6 +1492,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1518,12 +1531,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,7 +1576,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1865,14 +1871,14 @@
       <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="38" t="s">
@@ -1881,12 +1887,12 @@
       <c r="C3" s="39">
         <v>16110069</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="38" t="s">
@@ -1895,14 +1901,14 @@
       <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="38" t="s">
@@ -1911,183 +1917,183 @@
       <c r="C5" s="39">
         <v>16110249</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="40"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2135,21 +2141,21 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
@@ -2174,19 +2180,19 @@
         <v>79</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="60" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -2199,10 +2205,10 @@
       <c r="F5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="116"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="61" t="s">
         <v>176</v>
       </c>
@@ -2231,7 +2237,7 @@
       <c r="G6" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="110" t="s">
         <v>234</v>
       </c>
       <c r="I6" s="62"/>
@@ -2239,10 +2245,10 @@
       <c r="K6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="109"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -2256,7 +2262,7 @@
       <c r="G7" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="63" t="s">
         <v>82</v>
       </c>
@@ -2272,10 +2278,10 @@
       <c r="F8" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="116"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="63" t="s">
         <v>84</v>
       </c>
@@ -2289,10 +2295,10 @@
       <c r="F9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="116"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="63" t="s">
         <v>86</v>
       </c>
@@ -2353,14 +2359,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="'Các bảng chính'!A1" display="Return " xr:uid="{AB151D43-8F50-4F00-B871-59E714EA7C6E}"/>
@@ -2392,7 +2398,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2413,19 +2419,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
@@ -2559,89 +2565,93 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="13"/>
-      <c r="E12" s="132" t="s">
+      <c r="E12" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="G12" s="64" t="s">
         <v>239</v>
-      </c>
-      <c r="G12" s="132" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
+      <c r="E13" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="13"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="13"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2692,19 +2702,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -2726,7 +2736,7 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -2746,7 +2756,7 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="13" t="s">
         <v>53</v>
       </c>
@@ -2895,19 +2905,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -2929,7 +2939,7 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="119" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -2949,7 +2959,7 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="13" t="s">
         <v>53</v>
       </c>
@@ -2963,7 +2973,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="D7" s="96"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="13" t="s">
         <v>164</v>
       </c>
@@ -2981,7 +2991,7 @@
       <c r="A8" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="13" t="s">
         <v>165</v>
       </c>
@@ -2997,7 +3007,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
-      <c r="D9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="13" t="s">
         <v>166</v>
       </c>
@@ -3119,26 +3129,26 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="K3" s="119" t="s">
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="K3" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
@@ -3155,11 +3165,11 @@
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -3178,11 +3188,11 @@
       <c r="I5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -3199,11 +3209,11 @@
         <v>211</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -3220,11 +3230,11 @@
       <c r="I7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
@@ -3234,50 +3244,50 @@
       <c r="I8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
@@ -3373,19 +3383,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -3553,19 +3563,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -3582,12 +3592,12 @@
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16">
@@ -3607,12 +3617,12 @@
       <c r="I5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:16">
@@ -3630,10 +3640,10 @@
         <v>208</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
@@ -3806,19 +3816,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
@@ -3835,12 +3845,12 @@
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -3859,12 +3869,12 @@
       <c r="I5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -3881,10 +3891,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -4076,26 +4086,26 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="K3" s="128" t="s">
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="K3" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -4112,17 +4122,17 @@
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="13" t="s">
         <v>133</v>
       </c>
@@ -4135,30 +4145,30 @@
       <c r="I5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="126"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="13"/>
       <c r="F6" s="55"/>
       <c r="G6" s="13"/>
       <c r="I6" s="48"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
-      <c r="D7" s="126"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
@@ -4171,17 +4181,17 @@
       <c r="I7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
@@ -4194,32 +4204,32 @@
       <c r="I8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
-      <c r="D9" s="126"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="I9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="13" t="s">
         <v>134</v>
       </c>
@@ -4229,17 +4239,17 @@
       <c r="G10" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="13" t="s">
         <v>135</v>
       </c>
@@ -4249,15 +4259,15 @@
       <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="13"/>
-      <c r="D12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="13" t="s">
         <v>136</v>
       </c>
@@ -4267,17 +4277,17 @@
       <c r="G12" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="54" t="s">
         <v>130</v>
       </c>
@@ -4287,17 +4297,17 @@
       <c r="G13" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="8" t="s">
         <v>145</v>
       </c>
@@ -4307,11 +4317,11 @@
       <c r="G14" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="13"/>
@@ -4399,19 +4409,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -4590,34 +4600,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="82" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
@@ -4649,11 +4659,11 @@
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
@@ -4743,11 +4753,11 @@
       <c r="B13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
@@ -4791,11 +4801,11 @@
       <c r="B16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
@@ -4835,11 +4845,11 @@
       <c r="B19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
@@ -4895,7 +4905,7 @@
       <c r="B23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="71" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="77"/>
@@ -4920,26 +4930,26 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21"/>
-      <c r="B25" s="78">
+      <c r="B25" s="73">
         <v>15</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="76" t="s">
         <v>186</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
@@ -4947,11 +4957,11 @@
       <c r="B27" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="32.25" customHeight="1">
@@ -4991,11 +5001,11 @@
       <c r="B30" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
@@ -5045,11 +5055,11 @@
       <c r="B34" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
@@ -5071,11 +5081,11 @@
       <c r="B36" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
@@ -5090,23 +5100,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A36" xr:uid="{39887C66-212A-48AF-80F5-AABDC6AC8EF8}">
@@ -5160,19 +5170,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5347,19 +5357,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5524,17 +5534,17 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
@@ -5703,17 +5713,17 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -5734,7 +5744,7 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="95" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -5751,7 +5761,7 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="47" t="s">
         <v>53</v>
       </c>
@@ -5887,28 +5897,28 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="13"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
       <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -5922,15 +5932,15 @@
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -5944,41 +5954,41 @@
       <c r="I5" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="I7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="41" t="s">
@@ -5987,217 +5997,217 @@
       <c r="I8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
       <c r="I9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="13"/>
       <c r="J12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="97" t="s">
+      <c r="K13" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="13"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6254,17 +6264,17 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6421,17 +6431,17 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6590,19 +6600,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6794,19 +6804,19 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
@@ -6828,7 +6838,7 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="103" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -6848,7 +6858,7 @@
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
